--- a/开发和测试过程数据统计对照表.xlsx
+++ b/开发和测试过程数据统计对照表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raspberry\Team107\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664F98CE-A4B0-4054-B36C-06250245B550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331D7030-4971-465C-A55B-E6C2F82EB121}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="506">
   <si>
     <t>Github账户</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2759,6 +2759,12 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>9971e18</t>
+  </si>
+  <si>
+    <t>8691e15</t>
   </si>
 </sst>
 </file>
@@ -2768,7 +2774,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2863,18 +2869,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF05264C"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF24292E"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
@@ -3165,9 +3159,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3175,15 +3166,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3219,10 +3201,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3553,14 +3547,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
@@ -3821,14 +3815,14 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -3930,13 +3924,13 @@
       <c r="A24" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -3952,13 +3946,13 @@
       <c r="A25" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -7444,18 +7438,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
@@ -8940,14 +8934,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253E7184-E062-40F0-A428-AA79917B4B7E}">
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" style="66" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.125" style="8" bestFit="1" customWidth="1"/>
@@ -8955,19 +8949,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="61" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="43" t="s">
@@ -8984,7 +8978,7 @@
       <c r="A3" s="43">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="62" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="44" t="s">
@@ -9001,7 +8995,7 @@
       <c r="A4" s="43">
         <v>2</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="63" t="s">
         <v>107</v>
       </c>
       <c r="C4" s="45" t="s">
@@ -9018,7 +9012,7 @@
       <c r="A5" s="43">
         <v>3</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="63" t="s">
         <v>110</v>
       </c>
       <c r="C5" s="45" t="s">
@@ -9035,7 +9029,7 @@
       <c r="A6" s="43">
         <v>4</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="64">
         <v>3.2899999999999999E+56</v>
       </c>
       <c r="C6" s="45" t="s">
@@ -9052,7 +9046,7 @@
       <c r="A7" s="43">
         <v>5</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="63" t="s">
         <v>115</v>
       </c>
       <c r="C7" s="45" t="s">
@@ -9069,7 +9063,7 @@
       <c r="A8" s="43">
         <v>6</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="63" t="s">
         <v>118</v>
       </c>
       <c r="C8" s="45" t="s">
@@ -9086,7 +9080,7 @@
       <c r="A9" s="43">
         <v>7</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="63" t="s">
         <v>120</v>
       </c>
       <c r="C9" s="45" t="s">
@@ -9103,7 +9097,7 @@
       <c r="A10" s="43">
         <v>8</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="63" t="s">
         <v>121</v>
       </c>
       <c r="C10" s="45" t="s">
@@ -9120,7 +9114,7 @@
       <c r="A11" s="43">
         <v>9</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="63" t="s">
         <v>123</v>
       </c>
       <c r="C11" s="45" t="s">
@@ -9137,7 +9131,7 @@
       <c r="A12" s="43">
         <v>10</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="63" t="s">
         <v>125</v>
       </c>
       <c r="C12" s="45" t="s">
@@ -9154,7 +9148,7 @@
       <c r="A13" s="43">
         <v>11</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="63" t="s">
         <v>127</v>
       </c>
       <c r="C13" s="45" t="s">
@@ -9171,7 +9165,7 @@
       <c r="A14" s="43">
         <v>12</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="63" t="s">
         <v>130</v>
       </c>
       <c r="C14" s="45" t="s">
@@ -9188,7 +9182,7 @@
       <c r="A15" s="43">
         <v>13</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="63" t="s">
         <v>133</v>
       </c>
       <c r="C15" s="45" t="s">
@@ -9205,7 +9199,7 @@
       <c r="A16" s="43">
         <v>14</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="63" t="s">
         <v>135</v>
       </c>
       <c r="C16" s="45" t="s">
@@ -9222,7 +9216,7 @@
       <c r="A17" s="43">
         <v>15</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="63" t="s">
         <v>138</v>
       </c>
       <c r="C17" s="45" t="s">
@@ -9239,7 +9233,7 @@
       <c r="A18" s="43">
         <v>16</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="63" t="s">
         <v>141</v>
       </c>
       <c r="C18" s="45" t="s">
@@ -9253,10 +9247,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="48">
+      <c r="A19" s="47">
         <v>17</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="63" t="s">
         <v>144</v>
       </c>
       <c r="C19" s="45" t="s">
@@ -9270,16 +9264,16 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="48">
+      <c r="A20" s="47">
         <v>18</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="48" t="s">
         <v>148</v>
       </c>
       <c r="E20" s="46" t="s">
@@ -9287,16 +9281,16 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="48">
+      <c r="A21" s="47">
         <v>19</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="48" t="s">
         <v>151</v>
       </c>
       <c r="E21" s="46" t="s">
@@ -9304,16 +9298,16 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="48">
+      <c r="A22" s="47">
         <v>20</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="48" t="s">
         <v>154</v>
       </c>
       <c r="E22" s="46" t="s">
@@ -9321,16 +9315,16 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="48">
+      <c r="A23" s="47">
         <v>21</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="48" t="s">
         <v>157</v>
       </c>
       <c r="E23" s="46" t="s">
@@ -9338,16 +9332,16 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="48">
+      <c r="A24" s="47">
         <v>22</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="48" t="s">
         <v>160</v>
       </c>
       <c r="E24" s="46" t="s">
@@ -9355,16 +9349,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="48">
+      <c r="A25" s="47">
         <v>23</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="48" t="s">
         <v>163</v>
       </c>
       <c r="E25" s="46" t="s">
@@ -9372,16 +9366,16 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="48">
+      <c r="A26" s="47">
         <v>24</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="48" t="s">
         <v>166</v>
       </c>
       <c r="E26" s="46" t="s">
@@ -9389,16 +9383,16 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="48">
+      <c r="A27" s="47">
         <v>25</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="48" t="s">
         <v>117</v>
       </c>
       <c r="E27" s="46" t="s">
@@ -9406,16 +9400,16 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="48">
+      <c r="A28" s="47">
         <v>26</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="48" t="s">
         <v>171</v>
       </c>
       <c r="E28" s="46" t="s">
@@ -9423,16 +9417,16 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="48">
+      <c r="A29" s="47">
         <v>27</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="48" t="s">
         <v>114</v>
       </c>
       <c r="E29" s="46" t="s">
@@ -9440,16 +9434,16 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="48">
+      <c r="A30" s="47">
         <v>28</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="48" t="s">
         <v>176</v>
       </c>
       <c r="E30" s="46" t="s">
@@ -9457,16 +9451,16 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="48">
+      <c r="A31" s="47">
         <v>29</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="48" t="s">
         <v>179</v>
       </c>
       <c r="E31" s="46" t="s">
@@ -9474,16 +9468,16 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="48">
+      <c r="A32" s="47">
         <v>30</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="48" t="s">
         <v>182</v>
       </c>
       <c r="E32" s="46" t="s">
@@ -9491,16 +9485,16 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="48">
+      <c r="A33" s="47">
         <v>31</v>
       </c>
-      <c r="B33" s="51">
-        <v>9.9709999999999992E+21</v>
-      </c>
-      <c r="C33" s="49" t="s">
+      <c r="B33" s="64" t="s">
+        <v>504</v>
+      </c>
+      <c r="C33" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="48" t="s">
         <v>184</v>
       </c>
       <c r="E33" s="46" t="s">
@@ -9508,16 +9502,16 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="48">
+      <c r="A34" s="47">
         <v>32</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="48" t="s">
         <v>187</v>
       </c>
       <c r="E34" s="46" t="s">
@@ -9525,16 +9519,16 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="48">
+      <c r="A35" s="47">
         <v>33</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="48" t="s">
         <v>190</v>
       </c>
       <c r="E35" s="46" t="s">
@@ -9542,16 +9536,16 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="48">
+      <c r="A36" s="47">
         <v>34</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="48" t="s">
         <v>193</v>
       </c>
       <c r="E36" s="46" t="s">
@@ -9559,16 +9553,16 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="48">
+      <c r="A37" s="47">
         <v>35</v>
       </c>
-      <c r="B37" s="52">
-        <v>8.691E+18</v>
-      </c>
-      <c r="C37" s="49" t="s">
+      <c r="B37" s="63" t="s">
+        <v>505</v>
+      </c>
+      <c r="C37" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="48" t="s">
         <v>195</v>
       </c>
       <c r="E37" s="46" t="s">
@@ -9576,16 +9570,16 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="48">
+      <c r="A38" s="47">
         <v>36</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E38" s="46" t="s">
@@ -9593,16 +9587,16 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="48">
+      <c r="A39" s="47">
         <v>37</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="48" t="s">
         <v>117</v>
       </c>
       <c r="E39" s="46" t="s">
@@ -9610,16 +9604,16 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="48">
+      <c r="A40" s="47">
         <v>38</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="48" t="s">
         <v>203</v>
       </c>
       <c r="E40" s="46" t="s">
@@ -9627,16 +9621,16 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="48">
+      <c r="A41" s="47">
         <v>39</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="48" t="s">
         <v>206</v>
       </c>
       <c r="E41" s="46" t="s">
@@ -9644,16 +9638,16 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="48">
+      <c r="A42" s="47">
         <v>40</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="48" t="s">
         <v>209</v>
       </c>
       <c r="E42" s="46" t="s">
@@ -9661,16 +9655,16 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="48">
+      <c r="A43" s="47">
         <v>41</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="48" t="s">
         <v>212</v>
       </c>
       <c r="E43" s="46" t="s">
@@ -9678,33 +9672,33 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="48">
+      <c r="A44" s="47">
         <v>42</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="E44" s="48" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="48">
+      <c r="A45" s="47">
         <v>43</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="48" t="s">
         <v>218</v>
       </c>
       <c r="E45" s="46" t="s">
@@ -9712,16 +9706,16 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="48">
+      <c r="A46" s="47">
         <v>44</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="D46" s="49" t="s">
+      <c r="D46" s="48" t="s">
         <v>220</v>
       </c>
       <c r="E46" s="46" t="s">
@@ -9729,16 +9723,16 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="48">
+      <c r="A47" s="47">
         <v>45</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="D47" s="49" t="s">
+      <c r="D47" s="48" t="s">
         <v>223</v>
       </c>
       <c r="E47" s="46" t="s">
@@ -9746,16 +9740,16 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="48">
+      <c r="A48" s="47">
         <v>46</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="48" t="s">
         <v>226</v>
       </c>
       <c r="E48" s="46" t="s">
@@ -9763,16 +9757,16 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="48">
+      <c r="A49" s="47">
         <v>47</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="D49" s="49" t="s">
+      <c r="D49" s="48" t="s">
         <v>229</v>
       </c>
       <c r="E49" s="46" t="s">
@@ -9780,16 +9774,16 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="48">
+      <c r="A50" s="47">
         <v>48</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="48" t="s">
         <v>232</v>
       </c>
       <c r="E50" s="46" t="s">
@@ -9797,16 +9791,16 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="48">
+      <c r="A51" s="47">
         <v>49</v>
       </c>
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="65" t="s">
         <v>233</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="D51" s="49" t="s">
+      <c r="D51" s="48" t="s">
         <v>235</v>
       </c>
       <c r="E51" s="46" t="s">
@@ -9814,16 +9808,16 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="48">
+      <c r="A52" s="47">
         <v>50</v>
       </c>
-      <c r="B52" s="49" t="s">
+      <c r="B52" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="D52" s="49" t="s">
+      <c r="D52" s="48" t="s">
         <v>238</v>
       </c>
       <c r="E52" s="46" t="s">
@@ -9831,16 +9825,16 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="48">
+      <c r="A53" s="47">
         <v>51</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="48" t="s">
         <v>241</v>
       </c>
       <c r="E53" s="46" t="s">
@@ -9848,16 +9842,16 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="48">
+      <c r="A54" s="47">
         <v>52</v>
       </c>
-      <c r="B54" s="49" t="s">
+      <c r="B54" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="D54" s="49" t="s">
+      <c r="D54" s="48" t="s">
         <v>244</v>
       </c>
       <c r="E54" s="46" t="s">
@@ -9865,16 +9859,16 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="48">
+      <c r="A55" s="47">
         <v>53</v>
       </c>
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="D55" s="49" t="s">
+      <c r="D55" s="48" t="s">
         <v>247</v>
       </c>
       <c r="E55" s="46" t="s">
@@ -9882,16 +9876,16 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="48">
+      <c r="A56" s="47">
         <v>54</v>
       </c>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="48" t="s">
         <v>250</v>
       </c>
       <c r="E56" s="46" t="s">
@@ -9899,16 +9893,16 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="48">
+      <c r="A57" s="47">
         <v>55</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="D57" s="49" t="s">
+      <c r="D57" s="48" t="s">
         <v>253</v>
       </c>
       <c r="E57" s="46" t="s">
@@ -9916,16 +9910,16 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="48">
+      <c r="A58" s="47">
         <v>56</v>
       </c>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="D58" s="49" t="s">
+      <c r="D58" s="48" t="s">
         <v>148</v>
       </c>
       <c r="E58" s="46" t="s">
@@ -9933,16 +9927,16 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="48">
+      <c r="A59" s="47">
         <v>57</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="D59" s="49" t="s">
+      <c r="D59" s="48" t="s">
         <v>258</v>
       </c>
       <c r="E59" s="46" t="s">
@@ -9950,16 +9944,16 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="48">
+      <c r="A60" s="47">
         <v>58</v>
       </c>
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="65" t="s">
         <v>259</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="D60" s="49" t="s">
+      <c r="D60" s="48" t="s">
         <v>261</v>
       </c>
       <c r="E60" s="46" t="s">
@@ -9967,16 +9961,16 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="48">
+      <c r="A61" s="47">
         <v>59</v>
       </c>
-      <c r="B61" s="49" t="s">
+      <c r="B61" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="D61" s="49" t="s">
+      <c r="D61" s="48" t="s">
         <v>264</v>
       </c>
       <c r="E61" s="46" t="s">
@@ -9984,16 +9978,16 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="48">
+      <c r="A62" s="47">
         <v>60</v>
       </c>
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="D62" s="49" t="s">
+      <c r="D62" s="48" t="s">
         <v>267</v>
       </c>
       <c r="E62" s="46" t="s">
@@ -10001,33 +9995,33 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="48">
+      <c r="A63" s="47">
         <v>61</v>
       </c>
-      <c r="B63" s="49" t="s">
+      <c r="B63" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="C63" s="49" t="s">
+      <c r="C63" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="D63" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="E63" s="49" t="s">
+      <c r="E63" s="48" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="48">
+      <c r="A64" s="47">
         <v>62</v>
       </c>
-      <c r="B64" s="49" t="s">
+      <c r="B64" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="D64" s="49" t="s">
+      <c r="D64" s="48" t="s">
         <v>273</v>
       </c>
       <c r="E64" s="46" t="s">
@@ -10035,16 +10029,16 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="48">
+      <c r="A65" s="47">
         <v>63</v>
       </c>
-      <c r="B65" s="49" t="s">
+      <c r="B65" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="C65" s="49" t="s">
+      <c r="C65" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="D65" s="49" t="s">
+      <c r="D65" s="48" t="s">
         <v>276</v>
       </c>
       <c r="E65" s="46" t="s">
@@ -10052,16 +10046,16 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="48">
+      <c r="A66" s="47">
         <v>64</v>
       </c>
-      <c r="B66" s="49" t="s">
+      <c r="B66" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="D66" s="49" t="s">
+      <c r="D66" s="48" t="s">
         <v>279</v>
       </c>
       <c r="E66" s="46" t="s">
@@ -10069,101 +10063,101 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="48">
+      <c r="A67" s="47">
         <v>65</v>
       </c>
-      <c r="B67" s="49" t="s">
+      <c r="B67" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="C67" s="49" t="s">
+      <c r="C67" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="E67" s="49" t="s">
+      <c r="E67" s="48" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="48">
+      <c r="A68" s="47">
         <v>66</v>
       </c>
-      <c r="B68" s="49" t="s">
+      <c r="B68" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="D68" s="49" t="s">
+      <c r="D68" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="E68" s="49" t="s">
+      <c r="E68" s="48" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="48">
+      <c r="A69" s="47">
         <v>67</v>
       </c>
-      <c r="B69" s="49" t="s">
+      <c r="B69" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="C69" s="49" t="s">
+      <c r="C69" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="D69" s="49" t="s">
+      <c r="D69" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="E69" s="49" t="s">
+      <c r="E69" s="48" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="48">
+      <c r="A70" s="47">
         <v>68</v>
       </c>
-      <c r="B70" s="49" t="s">
+      <c r="B70" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="C70" s="49" t="s">
+      <c r="C70" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D70" s="49" t="s">
+      <c r="D70" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="E70" s="49" t="s">
+      <c r="E70" s="48" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="48">
+      <c r="A71" s="47">
         <v>69</v>
       </c>
-      <c r="B71" s="49" t="s">
+      <c r="B71" s="65" t="s">
         <v>292</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D71" s="49" t="s">
+      <c r="D71" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="E71" s="49" t="s">
+      <c r="E71" s="48" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="48">
+      <c r="A72" s="47">
         <v>70</v>
       </c>
-      <c r="B72" s="49" t="s">
+      <c r="B72" s="65" t="s">
         <v>295</v>
       </c>
-      <c r="C72" s="49" t="s">
+      <c r="C72" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D72" s="49" t="s">
+      <c r="D72" s="48" t="s">
         <v>297</v>
       </c>
       <c r="E72" s="46" t="s">
@@ -10171,16 +10165,16 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="48">
+      <c r="A73" s="47">
         <v>71</v>
       </c>
-      <c r="B73" s="49" t="s">
+      <c r="B73" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="C73" s="49" t="s">
+      <c r="C73" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D73" s="49" t="s">
+      <c r="D73" s="48" t="s">
         <v>300</v>
       </c>
       <c r="E73" s="46" t="s">
@@ -10188,16 +10182,16 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="48">
+      <c r="A74" s="47">
         <v>72</v>
       </c>
-      <c r="B74" s="49" t="s">
+      <c r="B74" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="C74" s="49" t="s">
+      <c r="C74" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D74" s="49" t="s">
+      <c r="D74" s="48" t="s">
         <v>303</v>
       </c>
       <c r="E74" s="46" t="s">
@@ -10205,16 +10199,16 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="48">
+      <c r="A75" s="47">
         <v>73</v>
       </c>
-      <c r="B75" s="49" t="s">
+      <c r="B75" s="65" t="s">
         <v>304</v>
       </c>
-      <c r="C75" s="49" t="s">
+      <c r="C75" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="D75" s="49" t="s">
+      <c r="D75" s="48" t="s">
         <v>306</v>
       </c>
       <c r="E75" s="46" t="s">
@@ -10222,33 +10216,33 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="48">
+      <c r="A76" s="47">
         <v>74</v>
       </c>
-      <c r="B76" s="49" t="s">
+      <c r="B76" s="65" t="s">
         <v>307</v>
       </c>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="D76" s="49" t="s">
+      <c r="D76" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="E76" s="49" t="s">
+      <c r="E76" s="48" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="48">
+      <c r="A77" s="47">
         <v>75</v>
       </c>
-      <c r="B77" s="49" t="s">
+      <c r="B77" s="65" t="s">
         <v>310</v>
       </c>
-      <c r="C77" s="49" t="s">
+      <c r="C77" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="D77" s="49" t="s">
+      <c r="D77" s="48" t="s">
         <v>312</v>
       </c>
       <c r="E77" s="46" t="s">
@@ -10256,16 +10250,16 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="48">
+      <c r="A78" s="47">
         <v>76</v>
       </c>
-      <c r="B78" s="49" t="s">
+      <c r="B78" s="65" t="s">
         <v>313</v>
       </c>
-      <c r="C78" s="49" t="s">
+      <c r="C78" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="D78" s="49" t="s">
+      <c r="D78" s="48" t="s">
         <v>315</v>
       </c>
       <c r="E78" s="46" t="s">
@@ -10273,16 +10267,16 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="48">
+      <c r="A79" s="47">
         <v>77</v>
       </c>
-      <c r="B79" s="49" t="s">
+      <c r="B79" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="C79" s="49" t="s">
+      <c r="C79" s="48" t="s">
         <v>317</v>
       </c>
-      <c r="D79" s="49" t="s">
+      <c r="D79" s="48" t="s">
         <v>318</v>
       </c>
       <c r="E79" s="46" t="s">
@@ -10290,16 +10284,16 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="48">
+      <c r="A80" s="47">
         <v>78</v>
       </c>
-      <c r="B80" s="49" t="s">
+      <c r="B80" s="65" t="s">
         <v>319</v>
       </c>
-      <c r="C80" s="49" t="s">
+      <c r="C80" s="48" t="s">
         <v>320</v>
       </c>
-      <c r="D80" s="49" t="s">
+      <c r="D80" s="48" t="s">
         <v>321</v>
       </c>
       <c r="E80" s="46" t="s">
@@ -10307,16 +10301,16 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="48">
+      <c r="A81" s="47">
         <v>79</v>
       </c>
-      <c r="B81" s="49" t="s">
+      <c r="B81" s="65" t="s">
         <v>322</v>
       </c>
-      <c r="C81" s="49" t="s">
+      <c r="C81" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="D81" s="49" t="s">
+      <c r="D81" s="48" t="s">
         <v>324</v>
       </c>
       <c r="E81" s="46" t="s">
@@ -10324,16 +10318,16 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="48">
+      <c r="A82" s="47">
         <v>80</v>
       </c>
-      <c r="B82" s="49" t="s">
+      <c r="B82" s="65" t="s">
         <v>325</v>
       </c>
-      <c r="C82" s="49" t="s">
+      <c r="C82" s="48" t="s">
         <v>326</v>
       </c>
-      <c r="D82" s="49" t="s">
+      <c r="D82" s="48" t="s">
         <v>327</v>
       </c>
       <c r="E82" s="46" t="s">
@@ -10341,16 +10335,16 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="48">
+      <c r="A83" s="47">
         <v>81</v>
       </c>
-      <c r="B83" s="49" t="s">
+      <c r="B83" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="D83" s="49" t="s">
+      <c r="D83" s="48" t="s">
         <v>330</v>
       </c>
       <c r="E83" s="46" t="s">
@@ -10358,16 +10352,16 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="48">
+      <c r="A84" s="47">
         <v>82</v>
       </c>
-      <c r="B84" s="49" t="s">
+      <c r="B84" s="65" t="s">
         <v>331</v>
       </c>
-      <c r="C84" s="49" t="s">
+      <c r="C84" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="D84" s="49" t="s">
+      <c r="D84" s="48" t="s">
         <v>333</v>
       </c>
       <c r="E84" s="46" t="s">
@@ -10375,16 +10369,16 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="48">
+      <c r="A85" s="47">
         <v>83</v>
       </c>
-      <c r="B85" s="49" t="s">
+      <c r="B85" s="65" t="s">
         <v>334</v>
       </c>
-      <c r="C85" s="49" t="s">
+      <c r="C85" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="D85" s="49" t="s">
+      <c r="D85" s="48" t="s">
         <v>336</v>
       </c>
       <c r="E85" s="46" t="s">
@@ -10392,16 +10386,16 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="48">
+      <c r="A86" s="47">
         <v>84</v>
       </c>
-      <c r="B86" s="49" t="s">
+      <c r="B86" s="65" t="s">
         <v>337</v>
       </c>
-      <c r="C86" s="49" t="s">
+      <c r="C86" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="D86" s="49" t="s">
+      <c r="D86" s="48" t="s">
         <v>339</v>
       </c>
       <c r="E86" s="46" t="s">
@@ -10409,16 +10403,16 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="48">
+      <c r="A87" s="47">
         <v>85</v>
       </c>
-      <c r="B87" s="49" t="s">
+      <c r="B87" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="C87" s="49" t="s">
+      <c r="C87" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="D87" s="49" t="s">
+      <c r="D87" s="48" t="s">
         <v>341</v>
       </c>
       <c r="E87" s="46" t="s">
@@ -10426,16 +10420,16 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="48">
+      <c r="A88" s="47">
         <v>86</v>
       </c>
-      <c r="B88" s="49" t="s">
+      <c r="B88" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="C88" s="49" t="s">
+      <c r="C88" s="48" t="s">
         <v>343</v>
       </c>
-      <c r="D88" s="49" t="s">
+      <c r="D88" s="48" t="s">
         <v>344</v>
       </c>
       <c r="E88" s="46" t="s">
@@ -10443,16 +10437,16 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="48">
+      <c r="A89" s="47">
         <v>87</v>
       </c>
-      <c r="B89" s="49" t="s">
+      <c r="B89" s="65" t="s">
         <v>345</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C89" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="D89" s="49" t="s">
+      <c r="D89" s="48" t="s">
         <v>347</v>
       </c>
       <c r="E89" s="46" t="s">
@@ -10460,16 +10454,16 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="48">
+      <c r="A90" s="47">
         <v>88</v>
       </c>
-      <c r="B90" s="49" t="s">
+      <c r="B90" s="65" t="s">
         <v>348</v>
       </c>
-      <c r="C90" s="49" t="s">
+      <c r="C90" s="48" t="s">
         <v>349</v>
       </c>
-      <c r="D90" s="49" t="s">
+      <c r="D90" s="48" t="s">
         <v>350</v>
       </c>
       <c r="E90" s="46" t="s">
@@ -10477,16 +10471,16 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="48">
+      <c r="A91" s="47">
         <v>89</v>
       </c>
-      <c r="B91" s="49" t="s">
+      <c r="B91" s="65" t="s">
         <v>351</v>
       </c>
-      <c r="C91" s="49" t="s">
+      <c r="C91" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="D91" s="49" t="s">
+      <c r="D91" s="48" t="s">
         <v>353</v>
       </c>
       <c r="E91" s="46" t="s">
@@ -10494,16 +10488,16 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="48">
+      <c r="A92" s="47">
         <v>90</v>
       </c>
-      <c r="B92" s="49" t="s">
+      <c r="B92" s="65" t="s">
         <v>354</v>
       </c>
-      <c r="C92" s="49" t="s">
+      <c r="C92" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="D92" s="49" t="s">
+      <c r="D92" s="48" t="s">
         <v>356</v>
       </c>
       <c r="E92" s="46" t="s">
@@ -10511,16 +10505,16 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="48">
+      <c r="A93" s="47">
         <v>91</v>
       </c>
-      <c r="B93" s="49" t="s">
+      <c r="B93" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="C93" s="49" t="s">
+      <c r="C93" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="D93" s="49" t="s">
+      <c r="D93" s="48" t="s">
         <v>359</v>
       </c>
       <c r="E93" s="46" t="s">
@@ -10528,16 +10522,16 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="48">
+      <c r="A94" s="47">
         <v>92</v>
       </c>
-      <c r="B94" s="45">
+      <c r="B94" s="63">
         <v>2842001</v>
       </c>
-      <c r="C94" s="49" t="s">
+      <c r="C94" s="48" t="s">
         <v>360</v>
       </c>
-      <c r="D94" s="49" t="s">
+      <c r="D94" s="48" t="s">
         <v>361</v>
       </c>
       <c r="E94" s="46" t="s">
@@ -10545,16 +10539,16 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="48">
+      <c r="A95" s="47">
         <v>93</v>
       </c>
-      <c r="B95" s="49" t="s">
+      <c r="B95" s="65" t="s">
         <v>362</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="48" t="s">
         <v>363</v>
       </c>
-      <c r="D95" s="49" t="s">
+      <c r="D95" s="48" t="s">
         <v>364</v>
       </c>
       <c r="E95" s="46" t="s">
@@ -10562,16 +10556,16 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="48">
+      <c r="A96" s="47">
         <v>94</v>
       </c>
-      <c r="B96" s="49" t="s">
+      <c r="B96" s="65" t="s">
         <v>365</v>
       </c>
-      <c r="C96" s="49" t="s">
+      <c r="C96" s="48" t="s">
         <v>366</v>
       </c>
-      <c r="D96" s="49" t="s">
+      <c r="D96" s="48" t="s">
         <v>367</v>
       </c>
       <c r="E96" s="46" t="s">
@@ -10579,16 +10573,16 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="48">
+      <c r="A97" s="47">
         <v>95</v>
       </c>
-      <c r="B97" s="49" t="s">
+      <c r="B97" s="65" t="s">
         <v>368</v>
       </c>
-      <c r="C97" s="49" t="s">
+      <c r="C97" s="48" t="s">
         <v>369</v>
       </c>
-      <c r="D97" s="49" t="s">
+      <c r="D97" s="48" t="s">
         <v>370</v>
       </c>
       <c r="E97" s="46" t="s">
@@ -10596,16 +10590,16 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="48">
+      <c r="A98" s="47">
         <v>96</v>
       </c>
-      <c r="B98" s="49" t="s">
+      <c r="B98" s="65" t="s">
         <v>371</v>
       </c>
-      <c r="C98" s="49" t="s">
+      <c r="C98" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="D98" s="49" t="s">
+      <c r="D98" s="48" t="s">
         <v>373</v>
       </c>
       <c r="E98" s="46" t="s">
@@ -10613,16 +10607,16 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="48">
+      <c r="A99" s="47">
         <v>97</v>
       </c>
-      <c r="B99" s="49" t="s">
+      <c r="B99" s="65" t="s">
         <v>374</v>
       </c>
-      <c r="C99" s="49" t="s">
+      <c r="C99" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="D99" s="49" t="s">
+      <c r="D99" s="48" t="s">
         <v>376</v>
       </c>
       <c r="E99" s="46" t="s">
@@ -10630,16 +10624,16 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="48">
+      <c r="A100" s="47">
         <v>98</v>
       </c>
-      <c r="B100" s="49" t="s">
+      <c r="B100" s="65" t="s">
         <v>377</v>
       </c>
-      <c r="C100" s="49" t="s">
+      <c r="C100" s="48" t="s">
         <v>378</v>
       </c>
-      <c r="D100" s="49" t="s">
+      <c r="D100" s="48" t="s">
         <v>379</v>
       </c>
       <c r="E100" s="46" t="s">
@@ -10647,16 +10641,16 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="48">
+      <c r="A101" s="47">
         <v>99</v>
       </c>
-      <c r="B101" s="49" t="s">
+      <c r="B101" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="C101" s="49" t="s">
+      <c r="C101" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="D101" s="49" t="s">
+      <c r="D101" s="48" t="s">
         <v>382</v>
       </c>
       <c r="E101" s="46" t="s">
@@ -10664,50 +10658,50 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="48">
+      <c r="A102" s="47">
         <v>100</v>
       </c>
-      <c r="B102" s="49" t="s">
+      <c r="B102" s="65" t="s">
         <v>383</v>
       </c>
-      <c r="C102" s="49" t="s">
+      <c r="C102" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="D102" s="49" t="s">
+      <c r="D102" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="E102" s="49" t="s">
+      <c r="E102" s="48" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="48">
+      <c r="A103" s="47">
         <v>101</v>
       </c>
-      <c r="B103" s="53" t="s">
+      <c r="B103" s="65" t="s">
         <v>385</v>
       </c>
-      <c r="C103" s="49" t="s">
+      <c r="C103" s="48" t="s">
         <v>386</v>
       </c>
-      <c r="D103" s="49" t="s">
+      <c r="D103" s="48" t="s">
         <v>387</v>
       </c>
-      <c r="E103" s="49" t="s">
+      <c r="E103" s="48" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="48">
+      <c r="A104" s="47">
         <v>102</v>
       </c>
-      <c r="B104" s="45">
+      <c r="B104" s="63">
         <v>2038875</v>
       </c>
-      <c r="C104" s="49" t="s">
+      <c r="C104" s="48" t="s">
         <v>388</v>
       </c>
-      <c r="D104" s="49" t="s">
+      <c r="D104" s="48" t="s">
         <v>389</v>
       </c>
       <c r="E104" s="46" t="s">
@@ -10715,798 +10709,798 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="48">
+      <c r="A105" s="47">
         <v>103</v>
       </c>
-      <c r="B105" s="49" t="s">
+      <c r="B105" s="65" t="s">
         <v>390</v>
       </c>
-      <c r="C105" s="49" t="s">
+      <c r="C105" s="48" t="s">
         <v>391</v>
       </c>
-      <c r="D105" s="66" t="s">
+      <c r="D105" s="48" t="s">
         <v>392</v>
       </c>
       <c r="E105" s="46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A106" s="48">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" s="47">
         <v>104</v>
       </c>
-      <c r="B106" s="49" t="s">
+      <c r="B106" s="65" t="s">
         <v>393</v>
       </c>
-      <c r="C106" s="65" t="s">
+      <c r="C106" s="48" t="s">
         <v>394</v>
       </c>
-      <c r="D106" s="66" t="s">
+      <c r="D106" s="48" t="s">
         <v>395</v>
       </c>
       <c r="E106" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A107" s="48">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" s="47">
         <v>105</v>
       </c>
-      <c r="B107" s="49" t="s">
+      <c r="B107" s="65" t="s">
         <v>396</v>
       </c>
-      <c r="C107" s="65" t="s">
+      <c r="C107" s="48" t="s">
         <v>397</v>
       </c>
-      <c r="D107" s="66" t="s">
+      <c r="D107" s="48" t="s">
         <v>398</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A108" s="48">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" s="47">
         <v>106</v>
       </c>
-      <c r="B108" s="49" t="s">
+      <c r="B108" s="65" t="s">
         <v>399</v>
       </c>
-      <c r="C108" s="65" t="s">
+      <c r="C108" s="48" t="s">
         <v>400</v>
       </c>
-      <c r="D108" s="66" t="s">
+      <c r="D108" s="48" t="s">
         <v>401</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A109" s="48">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109" s="47">
         <v>107</v>
       </c>
-      <c r="B109" s="49" t="s">
+      <c r="B109" s="65" t="s">
         <v>402</v>
       </c>
-      <c r="C109" s="65" t="s">
+      <c r="C109" s="48" t="s">
         <v>404</v>
       </c>
-      <c r="D109" s="66" t="s">
+      <c r="D109" s="48" t="s">
         <v>403</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A110" s="48">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" s="47">
         <v>108</v>
       </c>
-      <c r="B110" s="49" t="s">
+      <c r="B110" s="65" t="s">
         <v>405</v>
       </c>
-      <c r="C110" s="65" t="s">
+      <c r="C110" s="48" t="s">
         <v>406</v>
       </c>
-      <c r="D110" s="66" t="s">
+      <c r="D110" s="48" t="s">
         <v>407</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A111" s="48">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" s="47">
         <v>109</v>
       </c>
-      <c r="B111" s="49" t="s">
+      <c r="B111" s="65" t="s">
         <v>408</v>
       </c>
-      <c r="C111" s="65" t="s">
+      <c r="C111" s="48" t="s">
         <v>409</v>
       </c>
-      <c r="D111" s="66" t="s">
+      <c r="D111" s="48" t="s">
         <v>410</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A112" s="48">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" s="47">
         <v>110</v>
       </c>
-      <c r="B112" s="49" t="s">
+      <c r="B112" s="65" t="s">
         <v>411</v>
       </c>
-      <c r="C112" s="65" t="s">
+      <c r="C112" s="48" t="s">
         <v>412</v>
       </c>
-      <c r="D112" s="66" t="s">
+      <c r="D112" s="48" t="s">
         <v>413</v>
       </c>
       <c r="E112" s="46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A113" s="48">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" s="47">
         <v>111</v>
       </c>
-      <c r="B113" s="49" t="s">
+      <c r="B113" s="65" t="s">
         <v>414</v>
       </c>
-      <c r="C113" s="65" t="s">
+      <c r="C113" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="D113" s="66" t="s">
+      <c r="D113" s="48" t="s">
         <v>415</v>
       </c>
-      <c r="E113" s="49" t="s">
+      <c r="E113" s="48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A114" s="48">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" s="47">
         <v>112</v>
       </c>
-      <c r="B114" s="49" t="s">
+      <c r="B114" s="65" t="s">
         <v>416</v>
       </c>
-      <c r="C114" s="65" t="s">
+      <c r="C114" s="48" t="s">
         <v>417</v>
       </c>
-      <c r="D114" s="66" t="s">
+      <c r="D114" s="48" t="s">
         <v>418</v>
       </c>
       <c r="E114" s="46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A115" s="48">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" s="47">
         <v>113</v>
       </c>
-      <c r="B115" s="49" t="s">
+      <c r="B115" s="65" t="s">
         <v>419</v>
       </c>
-      <c r="C115" s="65" t="s">
+      <c r="C115" s="48" t="s">
         <v>391</v>
       </c>
-      <c r="D115" s="66" t="s">
+      <c r="D115" s="48" t="s">
         <v>420</v>
       </c>
       <c r="E115" s="46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A116" s="48">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" s="47">
         <v>114</v>
       </c>
-      <c r="B116" s="49" t="s">
+      <c r="B116" s="65" t="s">
         <v>421</v>
       </c>
-      <c r="C116" s="65" t="s">
+      <c r="C116" s="48" t="s">
         <v>422</v>
       </c>
-      <c r="D116" s="66" t="s">
+      <c r="D116" s="48" t="s">
         <v>423</v>
       </c>
       <c r="E116" s="46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A117" s="48">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" s="47">
         <v>115</v>
       </c>
-      <c r="B117" s="49" t="s">
+      <c r="B117" s="65" t="s">
         <v>424</v>
       </c>
-      <c r="C117" s="65" t="s">
+      <c r="C117" s="48" t="s">
         <v>425</v>
       </c>
-      <c r="D117" s="66" t="s">
+      <c r="D117" s="48" t="s">
         <v>426</v>
       </c>
       <c r="E117" s="46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A118" s="48">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118" s="47">
         <v>116</v>
       </c>
-      <c r="B118" s="49" t="s">
+      <c r="B118" s="65" t="s">
         <v>427</v>
       </c>
-      <c r="C118" s="65" t="s">
+      <c r="C118" s="48" t="s">
         <v>428</v>
       </c>
-      <c r="D118" s="66" t="s">
+      <c r="D118" s="48" t="s">
         <v>429</v>
       </c>
       <c r="E118" s="46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A119" s="48">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119" s="47">
         <v>117</v>
       </c>
-      <c r="B119" s="49" t="s">
+      <c r="B119" s="65" t="s">
         <v>430</v>
       </c>
-      <c r="C119" s="65" t="s">
+      <c r="C119" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="D119" s="66" t="s">
+      <c r="D119" s="48" t="s">
         <v>431</v>
       </c>
       <c r="E119" s="46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A120" s="48">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A120" s="47">
         <v>118</v>
       </c>
-      <c r="B120" s="49" t="s">
+      <c r="B120" s="65" t="s">
         <v>432</v>
       </c>
-      <c r="C120" s="65" t="s">
+      <c r="C120" s="48" t="s">
         <v>391</v>
       </c>
-      <c r="D120" s="66" t="s">
+      <c r="D120" s="48" t="s">
         <v>433</v>
       </c>
       <c r="E120" s="46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A121" s="48">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A121" s="47">
         <v>119</v>
       </c>
-      <c r="B121" s="45">
+      <c r="B121" s="63">
         <v>8350337</v>
       </c>
-      <c r="C121" s="65" t="s">
+      <c r="C121" s="48" t="s">
         <v>417</v>
       </c>
-      <c r="D121" s="66" t="s">
+      <c r="D121" s="48" t="s">
         <v>434</v>
       </c>
       <c r="E121" s="46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A122" s="48">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A122" s="47">
         <v>120</v>
       </c>
-      <c r="B122" s="45">
+      <c r="B122" s="63">
         <v>3327624</v>
       </c>
-      <c r="C122" s="65" t="s">
+      <c r="C122" s="48" t="s">
         <v>435</v>
       </c>
-      <c r="D122" s="66" t="s">
+      <c r="D122" s="48" t="s">
         <v>436</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A123" s="48">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A123" s="47">
         <v>121</v>
       </c>
-      <c r="B123" s="49" t="s">
+      <c r="B123" s="65" t="s">
         <v>437</v>
       </c>
-      <c r="C123" s="65" t="s">
+      <c r="C123" s="48" t="s">
         <v>438</v>
       </c>
-      <c r="D123" s="66" t="s">
+      <c r="D123" s="48" t="s">
         <v>439</v>
       </c>
       <c r="E123" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A124" s="48">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A124" s="47">
         <v>122</v>
       </c>
-      <c r="B124" s="49" t="s">
+      <c r="B124" s="65" t="s">
         <v>440</v>
       </c>
-      <c r="C124" s="65" t="s">
+      <c r="C124" s="48" t="s">
         <v>441</v>
       </c>
-      <c r="D124" s="66" t="s">
+      <c r="D124" s="48" t="s">
         <v>436</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A125" s="48">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A125" s="47">
         <v>123</v>
       </c>
-      <c r="B125" s="49" t="s">
+      <c r="B125" s="65" t="s">
         <v>442</v>
       </c>
-      <c r="C125" s="65" t="s">
+      <c r="C125" s="48" t="s">
         <v>443</v>
       </c>
-      <c r="D125" s="66" t="s">
+      <c r="D125" s="48" t="s">
         <v>444</v>
       </c>
       <c r="E125" s="46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A126" s="48">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A126" s="47">
         <v>124</v>
       </c>
-      <c r="B126" s="49" t="s">
+      <c r="B126" s="65" t="s">
         <v>445</v>
       </c>
-      <c r="C126" s="65" t="s">
+      <c r="C126" s="48" t="s">
         <v>447</v>
       </c>
-      <c r="D126" s="66" t="s">
+      <c r="D126" s="48" t="s">
         <v>446</v>
       </c>
       <c r="E126" s="46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A127" s="48">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A127" s="47">
         <v>125</v>
       </c>
-      <c r="B127" s="49" t="s">
+      <c r="B127" s="65" t="s">
         <v>448</v>
       </c>
-      <c r="C127" s="65" t="s">
+      <c r="C127" s="48" t="s">
         <v>447</v>
       </c>
-      <c r="D127" s="66" t="s">
+      <c r="D127" s="48" t="s">
         <v>436</v>
       </c>
       <c r="E127" s="46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A128" s="48">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A128" s="47">
         <v>126</v>
       </c>
-      <c r="B128" s="49" t="s">
+      <c r="B128" s="65" t="s">
         <v>449</v>
       </c>
-      <c r="C128" s="65" t="s">
+      <c r="C128" s="48" t="s">
         <v>450</v>
       </c>
-      <c r="D128" s="66" t="s">
+      <c r="D128" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="E128" s="49" t="s">
+      <c r="E128" s="48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A129" s="48">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A129" s="47">
         <v>127</v>
       </c>
-      <c r="B129" s="49" t="s">
+      <c r="B129" s="65" t="s">
         <v>451</v>
       </c>
-      <c r="C129" s="65" t="s">
+      <c r="C129" s="48" t="s">
         <v>452</v>
       </c>
-      <c r="D129" s="66" t="s">
+      <c r="D129" s="48" t="s">
         <v>453</v>
       </c>
       <c r="E129" s="46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A130" s="48">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A130" s="47">
         <v>128</v>
       </c>
-      <c r="B130" s="49" t="s">
+      <c r="B130" s="65" t="s">
         <v>454</v>
       </c>
-      <c r="C130" s="65" t="s">
+      <c r="C130" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="D130" s="66" t="s">
+      <c r="D130" s="48" t="s">
         <v>436</v>
       </c>
       <c r="E130" s="46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A131" s="48">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A131" s="47">
         <v>129</v>
       </c>
-      <c r="B131" s="49" t="s">
+      <c r="B131" s="65" t="s">
         <v>456</v>
       </c>
-      <c r="C131" s="65" t="s">
+      <c r="C131" s="48" t="s">
         <v>457</v>
       </c>
-      <c r="D131" s="66" t="s">
+      <c r="D131" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="E131" s="49" t="s">
+      <c r="E131" s="48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A132" s="48">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A132" s="47">
         <v>130</v>
       </c>
-      <c r="B132" s="49" t="s">
+      <c r="B132" s="65" t="s">
         <v>458</v>
       </c>
-      <c r="C132" s="65" t="s">
+      <c r="C132" s="48" t="s">
         <v>459</v>
       </c>
-      <c r="D132" s="66" t="s">
+      <c r="D132" s="48" t="s">
         <v>436</v>
       </c>
       <c r="E132" s="46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A133" s="48">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A133" s="47">
         <v>131</v>
       </c>
-      <c r="B133" s="49" t="s">
+      <c r="B133" s="65" t="s">
         <v>460</v>
       </c>
-      <c r="C133" s="65" t="s">
+      <c r="C133" s="48" t="s">
         <v>461</v>
       </c>
-      <c r="D133" s="66" t="s">
+      <c r="D133" s="48" t="s">
         <v>436</v>
       </c>
       <c r="E133" s="46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A134" s="48">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A134" s="47">
         <v>132</v>
       </c>
-      <c r="B134" s="49" t="s">
+      <c r="B134" s="65" t="s">
         <v>462</v>
       </c>
-      <c r="C134" s="65" t="s">
+      <c r="C134" s="48" t="s">
         <v>463</v>
       </c>
-      <c r="D134" s="66" t="s">
+      <c r="D134" s="48" t="s">
         <v>464</v>
       </c>
       <c r="E134" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A135" s="48">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A135" s="47">
         <v>133</v>
       </c>
-      <c r="B135" s="49" t="s">
+      <c r="B135" s="65" t="s">
         <v>465</v>
       </c>
-      <c r="C135" s="65" t="s">
+      <c r="C135" s="48" t="s">
         <v>450</v>
       </c>
-      <c r="D135" s="66" t="s">
+      <c r="D135" s="48" t="s">
         <v>436</v>
       </c>
       <c r="E135" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A136" s="48">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A136" s="47">
         <v>134</v>
       </c>
-      <c r="B136" s="49" t="s">
+      <c r="B136" s="65" t="s">
         <v>466</v>
       </c>
-      <c r="C136" s="65" t="s">
+      <c r="C136" s="48" t="s">
         <v>467</v>
       </c>
-      <c r="D136" s="66" t="s">
+      <c r="D136" s="48" t="s">
         <v>468</v>
       </c>
       <c r="E136" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A137" s="48">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A137" s="47">
         <v>135</v>
       </c>
-      <c r="B137" s="49" t="s">
+      <c r="B137" s="65" t="s">
         <v>469</v>
       </c>
-      <c r="C137" s="65" t="s">
+      <c r="C137" s="48" t="s">
         <v>470</v>
       </c>
-      <c r="D137" s="66" t="s">
+      <c r="D137" s="48" t="s">
         <v>471</v>
       </c>
       <c r="E137" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A138" s="48">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A138" s="47">
         <v>136</v>
       </c>
-      <c r="B138" s="49" t="s">
+      <c r="B138" s="65" t="s">
         <v>472</v>
       </c>
-      <c r="C138" s="65" t="s">
+      <c r="C138" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="D138" s="66" t="s">
+      <c r="D138" s="48" t="s">
         <v>474</v>
       </c>
       <c r="E138" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A139" s="48">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A139" s="47">
         <v>137</v>
       </c>
-      <c r="B139" s="49" t="s">
+      <c r="B139" s="65" t="s">
         <v>475</v>
       </c>
-      <c r="C139" s="65" t="s">
+      <c r="C139" s="48" t="s">
         <v>476</v>
       </c>
-      <c r="D139" s="66" t="s">
+      <c r="D139" s="48" t="s">
         <v>436</v>
       </c>
       <c r="E139" s="46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A140" s="48">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A140" s="47">
         <v>138</v>
       </c>
-      <c r="B140" s="49" t="s">
+      <c r="B140" s="65" t="s">
         <v>477</v>
       </c>
-      <c r="C140" s="65" t="s">
+      <c r="C140" s="48" t="s">
         <v>478</v>
       </c>
-      <c r="D140" s="66" t="s">
+      <c r="D140" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="E140" s="49" t="s">
+      <c r="E140" s="48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A141" s="48">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A141" s="47">
         <v>139</v>
       </c>
-      <c r="B141" s="49" t="s">
+      <c r="B141" s="65" t="s">
         <v>479</v>
       </c>
-      <c r="C141" s="65" t="s">
+      <c r="C141" s="48" t="s">
         <v>480</v>
       </c>
-      <c r="D141" s="66" t="s">
+      <c r="D141" s="48" t="s">
         <v>481</v>
       </c>
       <c r="E141" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A142" s="48">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A142" s="47">
         <v>140</v>
       </c>
-      <c r="B142" s="49" t="s">
+      <c r="B142" s="65" t="s">
         <v>482</v>
       </c>
-      <c r="C142" s="65" t="s">
+      <c r="C142" s="48" t="s">
         <v>483</v>
       </c>
-      <c r="D142" s="66" t="s">
+      <c r="D142" s="48" t="s">
         <v>484</v>
       </c>
       <c r="E142" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A143" s="48">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A143" s="47">
         <v>141</v>
       </c>
-      <c r="B143" s="49" t="s">
+      <c r="B143" s="65" t="s">
         <v>485</v>
       </c>
-      <c r="C143" s="65" t="s">
+      <c r="C143" s="48" t="s">
         <v>486</v>
       </c>
-      <c r="D143" s="66" t="s">
+      <c r="D143" s="48" t="s">
         <v>436</v>
       </c>
       <c r="E143" s="46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A144" s="48">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A144" s="47">
         <v>142</v>
       </c>
-      <c r="B144" s="49" t="s">
+      <c r="B144" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="C144" s="65" t="s">
+      <c r="C144" s="48" t="s">
         <v>488</v>
       </c>
-      <c r="D144" s="66" t="s">
+      <c r="D144" s="48" t="s">
         <v>436</v>
       </c>
       <c r="E144" s="46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A145" s="48">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A145" s="47">
         <v>143</v>
       </c>
-      <c r="B145" s="49" t="s">
+      <c r="B145" s="65" t="s">
         <v>489</v>
       </c>
-      <c r="C145" s="65" t="s">
+      <c r="C145" s="48" t="s">
         <v>480</v>
       </c>
-      <c r="D145" s="66" t="s">
+      <c r="D145" s="48" t="s">
         <v>490</v>
       </c>
       <c r="E145" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A146" s="48">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A146" s="47">
         <v>144</v>
       </c>
-      <c r="B146" s="49" t="s">
+      <c r="B146" s="65" t="s">
         <v>491</v>
       </c>
-      <c r="C146" s="65" t="s">
+      <c r="C146" s="48" t="s">
         <v>492</v>
       </c>
-      <c r="D146" s="66" t="s">
+      <c r="D146" s="48" t="s">
         <v>436</v>
       </c>
       <c r="E146" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A147" s="48">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A147" s="47">
         <v>145</v>
       </c>
-      <c r="B147" s="49" t="s">
+      <c r="B147" s="65" t="s">
         <v>493</v>
       </c>
-      <c r="C147" s="65" t="s">
+      <c r="C147" s="48" t="s">
         <v>494</v>
       </c>
-      <c r="D147" s="66" t="s">
+      <c r="D147" s="48" t="s">
         <v>446</v>
       </c>
       <c r="E147" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A148" s="48">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A148" s="47">
         <v>146</v>
       </c>
-      <c r="B148" s="49" t="s">
+      <c r="B148" s="65" t="s">
         <v>495</v>
       </c>
-      <c r="C148" s="65" t="s">
+      <c r="C148" s="48" t="s">
         <v>488</v>
       </c>
-      <c r="D148" s="66" t="s">
+      <c r="D148" s="48" t="s">
         <v>436</v>
       </c>
       <c r="E148" s="46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A149" s="48">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A149" s="47">
         <v>147</v>
       </c>
-      <c r="B149" s="49" t="s">
+      <c r="B149" s="65" t="s">
         <v>496</v>
       </c>
-      <c r="C149" s="65" t="s">
+      <c r="C149" s="48" t="s">
         <v>497</v>
       </c>
-      <c r="D149" s="66" t="s">
+      <c r="D149" s="48" t="s">
         <v>498</v>
       </c>
       <c r="E149" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A150" s="48">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A150" s="47">
         <v>148</v>
       </c>
-      <c r="B150" s="49" t="s">
+      <c r="B150" s="65" t="s">
         <v>499</v>
       </c>
-      <c r="C150" s="65" t="s">
+      <c r="C150" s="48" t="s">
         <v>500</v>
       </c>
-      <c r="D150" s="66" t="s">
+      <c r="D150" s="48" t="s">
         <v>436</v>
       </c>
       <c r="E150" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A151" s="48">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A151" s="47">
         <v>149</v>
       </c>
-      <c r="B151" s="49" t="s">
+      <c r="B151" s="65" t="s">
         <v>501</v>
       </c>
-      <c r="C151" s="65" t="s">
+      <c r="C151" s="48" t="s">
         <v>502</v>
       </c>
-      <c r="D151" s="66" t="s">
+      <c r="D151" s="48" t="s">
         <v>503</v>
       </c>
       <c r="E151" s="46" t="s">
@@ -11514,274 +11508,274 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A152" s="48">
+      <c r="A152" s="47">
         <v>150</v>
       </c>
-      <c r="B152" s="49"/>
-      <c r="C152" s="49"/>
-      <c r="D152" s="49"/>
-      <c r="E152" s="49"/>
+      <c r="B152" s="65"/>
+      <c r="C152" s="48"/>
+      <c r="D152" s="48"/>
+      <c r="E152" s="48"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A153" s="48">
+      <c r="A153" s="47">
         <v>151</v>
       </c>
-      <c r="B153" s="49"/>
-      <c r="C153" s="49"/>
-      <c r="D153" s="49"/>
-      <c r="E153" s="49"/>
+      <c r="B153" s="65"/>
+      <c r="C153" s="48"/>
+      <c r="D153" s="48"/>
+      <c r="E153" s="48"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A154" s="48">
+      <c r="A154" s="47">
         <v>152</v>
       </c>
-      <c r="B154" s="49"/>
-      <c r="C154" s="49"/>
-      <c r="D154" s="49"/>
-      <c r="E154" s="49"/>
+      <c r="B154" s="65"/>
+      <c r="C154" s="48"/>
+      <c r="D154" s="48"/>
+      <c r="E154" s="48"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A155" s="48">
+      <c r="A155" s="47">
         <v>153</v>
       </c>
-      <c r="B155" s="49"/>
-      <c r="C155" s="49"/>
-      <c r="D155" s="49"/>
-      <c r="E155" s="49"/>
+      <c r="B155" s="65"/>
+      <c r="C155" s="48"/>
+      <c r="D155" s="48"/>
+      <c r="E155" s="48"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A156" s="48">
+      <c r="A156" s="47">
         <v>154</v>
       </c>
-      <c r="B156" s="49"/>
-      <c r="C156" s="49"/>
-      <c r="D156" s="49"/>
-      <c r="E156" s="49"/>
+      <c r="B156" s="65"/>
+      <c r="C156" s="48"/>
+      <c r="D156" s="48"/>
+      <c r="E156" s="48"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A157" s="48">
+      <c r="A157" s="47">
         <v>155</v>
       </c>
-      <c r="B157" s="49"/>
-      <c r="C157" s="49"/>
-      <c r="D157" s="49"/>
-      <c r="E157" s="49"/>
+      <c r="B157" s="65"/>
+      <c r="C157" s="48"/>
+      <c r="D157" s="48"/>
+      <c r="E157" s="48"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A158" s="48">
+      <c r="A158" s="47">
         <v>156</v>
       </c>
-      <c r="B158" s="49"/>
-      <c r="C158" s="49"/>
-      <c r="D158" s="49"/>
-      <c r="E158" s="49"/>
+      <c r="B158" s="65"/>
+      <c r="C158" s="48"/>
+      <c r="D158" s="48"/>
+      <c r="E158" s="48"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A159" s="48">
+      <c r="A159" s="47">
         <v>157</v>
       </c>
-      <c r="B159" s="49"/>
-      <c r="C159" s="49"/>
-      <c r="D159" s="49"/>
-      <c r="E159" s="49"/>
+      <c r="B159" s="65"/>
+      <c r="C159" s="48"/>
+      <c r="D159" s="48"/>
+      <c r="E159" s="48"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A160" s="48">
+      <c r="A160" s="47">
         <v>158</v>
       </c>
-      <c r="B160" s="49"/>
-      <c r="C160" s="49"/>
-      <c r="D160" s="49"/>
-      <c r="E160" s="49"/>
+      <c r="B160" s="65"/>
+      <c r="C160" s="48"/>
+      <c r="D160" s="48"/>
+      <c r="E160" s="48"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A161" s="48">
+      <c r="A161" s="47">
         <v>159</v>
       </c>
-      <c r="B161" s="49"/>
-      <c r="C161" s="49"/>
-      <c r="D161" s="49"/>
-      <c r="E161" s="49"/>
+      <c r="B161" s="65"/>
+      <c r="C161" s="48"/>
+      <c r="D161" s="48"/>
+      <c r="E161" s="48"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A162" s="48">
+      <c r="A162" s="47">
         <v>160</v>
       </c>
-      <c r="B162" s="49"/>
-      <c r="C162" s="49"/>
-      <c r="D162" s="49"/>
-      <c r="E162" s="49"/>
+      <c r="B162" s="65"/>
+      <c r="C162" s="48"/>
+      <c r="D162" s="48"/>
+      <c r="E162" s="48"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A163" s="48">
+      <c r="A163" s="47">
         <v>161</v>
       </c>
-      <c r="B163" s="49"/>
-      <c r="C163" s="49"/>
-      <c r="D163" s="49"/>
-      <c r="E163" s="49"/>
+      <c r="B163" s="65"/>
+      <c r="C163" s="48"/>
+      <c r="D163" s="48"/>
+      <c r="E163" s="48"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A164" s="48">
+      <c r="A164" s="47">
         <v>162</v>
       </c>
-      <c r="B164" s="49"/>
-      <c r="C164" s="49"/>
-      <c r="D164" s="49"/>
-      <c r="E164" s="49"/>
+      <c r="B164" s="65"/>
+      <c r="C164" s="48"/>
+      <c r="D164" s="48"/>
+      <c r="E164" s="48"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A165" s="48">
+      <c r="A165" s="47">
         <v>163</v>
       </c>
-      <c r="B165" s="49"/>
-      <c r="C165" s="49"/>
-      <c r="D165" s="49"/>
-      <c r="E165" s="49"/>
+      <c r="B165" s="65"/>
+      <c r="C165" s="48"/>
+      <c r="D165" s="48"/>
+      <c r="E165" s="48"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A166" s="48">
+      <c r="A166" s="47">
         <v>164</v>
       </c>
-      <c r="B166" s="49"/>
-      <c r="C166" s="49"/>
-      <c r="D166" s="49"/>
-      <c r="E166" s="49"/>
+      <c r="B166" s="65"/>
+      <c r="C166" s="48"/>
+      <c r="D166" s="48"/>
+      <c r="E166" s="48"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A167" s="48">
+      <c r="A167" s="47">
         <v>165</v>
       </c>
-      <c r="B167" s="49"/>
-      <c r="C167" s="49"/>
-      <c r="D167" s="49"/>
-      <c r="E167" s="49"/>
+      <c r="B167" s="65"/>
+      <c r="C167" s="48"/>
+      <c r="D167" s="48"/>
+      <c r="E167" s="48"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A168" s="48">
+      <c r="A168" s="47">
         <v>166</v>
       </c>
-      <c r="B168" s="49"/>
-      <c r="C168" s="49"/>
-      <c r="D168" s="49"/>
-      <c r="E168" s="49"/>
+      <c r="B168" s="65"/>
+      <c r="C168" s="48"/>
+      <c r="D168" s="48"/>
+      <c r="E168" s="48"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A169" s="48">
+      <c r="A169" s="47">
         <v>167</v>
       </c>
-      <c r="B169" s="49"/>
-      <c r="C169" s="49"/>
-      <c r="D169" s="49"/>
-      <c r="E169" s="49"/>
+      <c r="B169" s="65"/>
+      <c r="C169" s="48"/>
+      <c r="D169" s="48"/>
+      <c r="E169" s="48"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A170" s="48">
+      <c r="A170" s="47">
         <v>168</v>
       </c>
-      <c r="B170" s="49"/>
-      <c r="C170" s="49"/>
-      <c r="D170" s="49"/>
-      <c r="E170" s="49"/>
+      <c r="B170" s="65"/>
+      <c r="C170" s="48"/>
+      <c r="D170" s="48"/>
+      <c r="E170" s="48"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A171" s="48">
+      <c r="A171" s="47">
         <v>169</v>
       </c>
-      <c r="B171" s="49"/>
-      <c r="C171" s="49"/>
-      <c r="D171" s="49"/>
-      <c r="E171" s="49"/>
+      <c r="B171" s="65"/>
+      <c r="C171" s="48"/>
+      <c r="D171" s="48"/>
+      <c r="E171" s="48"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A172" s="48">
+      <c r="A172" s="47">
         <v>170</v>
       </c>
-      <c r="B172" s="49"/>
-      <c r="C172" s="49"/>
-      <c r="D172" s="49"/>
-      <c r="E172" s="49"/>
+      <c r="B172" s="65"/>
+      <c r="C172" s="48"/>
+      <c r="D172" s="48"/>
+      <c r="E172" s="48"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A173" s="48">
+      <c r="A173" s="47">
         <v>171</v>
       </c>
-      <c r="B173" s="49"/>
-      <c r="C173" s="49"/>
-      <c r="D173" s="49"/>
-      <c r="E173" s="49"/>
+      <c r="B173" s="65"/>
+      <c r="C173" s="48"/>
+      <c r="D173" s="48"/>
+      <c r="E173" s="48"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A174" s="48">
+      <c r="A174" s="47">
         <v>172</v>
       </c>
-      <c r="B174" s="49"/>
-      <c r="C174" s="49"/>
-      <c r="D174" s="49"/>
-      <c r="E174" s="49"/>
+      <c r="B174" s="65"/>
+      <c r="C174" s="48"/>
+      <c r="D174" s="48"/>
+      <c r="E174" s="48"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A175" s="48">
+      <c r="A175" s="47">
         <v>173</v>
       </c>
-      <c r="B175" s="49"/>
-      <c r="C175" s="49"/>
-      <c r="D175" s="49"/>
-      <c r="E175" s="49"/>
+      <c r="B175" s="65"/>
+      <c r="C175" s="48"/>
+      <c r="D175" s="48"/>
+      <c r="E175" s="48"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A176" s="48">
+      <c r="A176" s="47">
         <v>174</v>
       </c>
-      <c r="B176" s="49"/>
-      <c r="C176" s="49"/>
-      <c r="D176" s="49"/>
-      <c r="E176" s="49"/>
+      <c r="B176" s="65"/>
+      <c r="C176" s="48"/>
+      <c r="D176" s="48"/>
+      <c r="E176" s="48"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A177" s="48">
+      <c r="A177" s="47">
         <v>175</v>
       </c>
-      <c r="B177" s="49"/>
-      <c r="C177" s="49"/>
-      <c r="D177" s="49"/>
-      <c r="E177" s="49"/>
+      <c r="B177" s="65"/>
+      <c r="C177" s="48"/>
+      <c r="D177" s="48"/>
+      <c r="E177" s="48"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A178" s="48">
+      <c r="A178" s="47">
         <v>176</v>
       </c>
-      <c r="B178" s="49"/>
-      <c r="C178" s="49"/>
-      <c r="D178" s="49"/>
-      <c r="E178" s="49"/>
+      <c r="B178" s="65"/>
+      <c r="C178" s="48"/>
+      <c r="D178" s="48"/>
+      <c r="E178" s="48"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A179" s="48">
+      <c r="A179" s="47">
         <v>177</v>
       </c>
-      <c r="B179" s="49"/>
-      <c r="C179" s="49"/>
-      <c r="D179" s="49"/>
-      <c r="E179" s="49"/>
+      <c r="B179" s="65"/>
+      <c r="C179" s="48"/>
+      <c r="D179" s="48"/>
+      <c r="E179" s="48"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A180" s="48">
+      <c r="A180" s="47">
         <v>178</v>
       </c>
-      <c r="B180" s="49"/>
-      <c r="C180" s="49"/>
-      <c r="D180" s="49"/>
-      <c r="E180" s="49"/>
+      <c r="B180" s="65"/>
+      <c r="C180" s="48"/>
+      <c r="D180" s="48"/>
+      <c r="E180" s="48"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A181" s="48">
+      <c r="A181" s="47">
         <v>179</v>
       </c>
-      <c r="B181" s="49"/>
-      <c r="C181" s="49"/>
-      <c r="D181" s="49"/>
-      <c r="E181" s="49"/>
+      <c r="B181" s="65"/>
+      <c r="C181" s="48"/>
+      <c r="D181" s="48"/>
+      <c r="E181" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11811,13 +11805,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">

--- a/开发和测试过程数据统计对照表.xlsx
+++ b/开发和测试过程数据统计对照表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raspberry\Team107\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331D7030-4971-465C-A55B-E6C2F82EB121}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478C0B3C-9749-4CB0-A7E2-8E6B7C617260}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="对照表" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="496">
   <si>
     <t>Github账户</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -217,24 +217,9 @@
     <t>刘禹廷</t>
   </si>
   <si>
-    <t>搭建报警系统的服务器端</t>
-  </si>
-  <si>
-    <t>系统优化</t>
-  </si>
-  <si>
     <t>杨枫</t>
   </si>
   <si>
-    <t>异常处理</t>
-  </si>
-  <si>
-    <t>搭建本地场景系统</t>
-  </si>
-  <si>
-    <t>报警系统测试</t>
-  </si>
-  <si>
     <t>搭建报警系统本地服务</t>
   </si>
   <si>
@@ -280,9 +265,6 @@
     <t>优化产品响应速度</t>
   </si>
   <si>
-    <t>优化产品可移植性</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 使用软路由进行所有设备的连接</t>
   </si>
   <si>
@@ -304,9 +286,6 @@
     <t>编写场景循环代码</t>
   </si>
   <si>
-    <t>Django功能测试</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Django URL测试</t>
   </si>
   <si>
@@ -340,9 +319,6 @@
     <t>代码性能优化</t>
   </si>
   <si>
-    <t>搭建HomeBridge平台</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 添加小米智能台灯</t>
   </si>
   <si>
@@ -358,9 +334,6 @@
     <t>树莓派向服务器端发送设备信息</t>
   </si>
   <si>
-    <t>本地数据库的搭建</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 开放url供hb插件访问</t>
   </si>
   <si>
@@ -371,9 +344,6 @@
   </si>
   <si>
     <t xml:space="preserve"> django环境搭建</t>
-  </si>
-  <si>
-    <t>ardunio端获取传感器信息</t>
   </si>
   <si>
     <t xml:space="preserve"> ardunio端获取烟雾传感器信息</t>
@@ -3017,7 +2987,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3123,9 +3093,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3168,6 +3135,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3200,24 +3185,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3547,14 +3514,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
@@ -3627,7 +3594,7 @@
         <v>46</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -3815,14 +3782,14 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -3924,13 +3891,13 @@
       <c r="A24" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -3946,13 +3913,13 @@
       <c r="A25" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -3983,7 +3950,7 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F27" s="41"/>
+      <c r="F27" s="40"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -3996,27 +3963,27 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="41" t="str">
-        <f>任务统计表!M10</f>
+      <c r="A28" s="40" t="str">
+        <f>任务统计表!M9</f>
         <v>柴林政</v>
       </c>
-      <c r="B28" s="41" t="str">
-        <f>任务统计表!N10</f>
+      <c r="B28" s="40" t="str">
+        <f>任务统计表!N9</f>
         <v>杨枫</v>
       </c>
-      <c r="C28" s="41" t="str">
-        <f>任务统计表!O10</f>
+      <c r="C28" s="40" t="str">
+        <f>任务统计表!O9</f>
         <v>刘禹廷</v>
       </c>
-      <c r="D28" s="41" t="str">
-        <f>任务统计表!P10</f>
+      <c r="D28" s="40" t="str">
+        <f>任务统计表!P9</f>
         <v>王政</v>
       </c>
-      <c r="E28" s="41" t="str">
-        <f>任务统计表!Q10</f>
+      <c r="E28" s="40" t="str">
+        <f>任务统计表!Q9</f>
         <v>赵振宁</v>
       </c>
-      <c r="F28" s="41"/>
+      <c r="F28" s="40"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -4029,25 +3996,25 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="41">
-        <f>任务统计表!M11</f>
-        <v>119.5</v>
-      </c>
-      <c r="B29" s="41">
-        <f>任务统计表!N11</f>
-        <v>142.5</v>
-      </c>
-      <c r="C29" s="41">
-        <f>任务统计表!O11</f>
-        <v>168.5</v>
-      </c>
-      <c r="D29" s="41">
-        <f>任务统计表!P11</f>
-        <v>45.5</v>
-      </c>
-      <c r="E29" s="41">
-        <f>任务统计表!Q11</f>
-        <v>66.5</v>
+      <c r="A29" s="40">
+        <f>任务统计表!M10</f>
+        <v>98</v>
+      </c>
+      <c r="B29" s="40">
+        <f>任务统计表!N10</f>
+        <v>122</v>
+      </c>
+      <c r="C29" s="40">
+        <f>任务统计表!O10</f>
+        <v>128</v>
+      </c>
+      <c r="D29" s="40">
+        <f>任务统计表!P10</f>
+        <v>33</v>
+      </c>
+      <c r="E29" s="40">
+        <f>任务统计表!Q10</f>
+        <v>59</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -7424,32 +7391,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06401FC5-5005-49A2-9140-33193ABED079}">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48" style="37" customWidth="1"/>
+    <col min="3" max="3" width="48" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
@@ -7461,1462 +7428,1202 @@
       <c r="C2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>105</v>
+      <c r="H2" s="39" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>1000011</v>
+        <v>1000056</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="39">
-        <v>10</v>
-      </c>
-      <c r="E3" s="39">
-        <v>0</v>
-      </c>
-      <c r="F3" s="39">
-        <v>0</v>
-      </c>
-      <c r="G3" s="39">
-        <v>0</v>
-      </c>
-      <c r="H3" s="39">
+        <v>52</v>
+      </c>
+      <c r="D3" s="38">
+        <v>5</v>
+      </c>
+      <c r="E3" s="38">
+        <v>5</v>
+      </c>
+      <c r="F3" s="38">
+        <v>0</v>
+      </c>
+      <c r="G3" s="38">
+        <v>0</v>
+      </c>
+      <c r="H3" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="9">
-        <v>1000056</v>
+        <v>1000019</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="39">
-        <v>5</v>
-      </c>
-      <c r="E4" s="39">
-        <v>5</v>
-      </c>
-      <c r="F4" s="39">
-        <v>0</v>
-      </c>
-      <c r="G4" s="39">
-        <v>0</v>
-      </c>
-      <c r="H4" s="39">
+        <v>53</v>
+      </c>
+      <c r="D4" s="38">
+        <v>10</v>
+      </c>
+      <c r="E4" s="38">
+        <v>0</v>
+      </c>
+      <c r="F4" s="38">
+        <v>0</v>
+      </c>
+      <c r="G4" s="38">
+        <v>0</v>
+      </c>
+      <c r="H4" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9">
-        <v>1000019</v>
+        <v>1000058</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="39">
+        <v>54</v>
+      </c>
+      <c r="D5" s="38">
         <v>10</v>
       </c>
-      <c r="E5" s="39">
-        <v>0</v>
-      </c>
-      <c r="F5" s="39">
-        <v>0</v>
-      </c>
-      <c r="G5" s="39">
-        <v>0</v>
-      </c>
-      <c r="H5" s="39">
+      <c r="E5" s="38">
+        <v>0</v>
+      </c>
+      <c r="F5" s="38">
+        <v>0</v>
+      </c>
+      <c r="G5" s="38">
+        <v>0</v>
+      </c>
+      <c r="H5" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="9">
-        <v>1000058</v>
+        <v>1000057</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="39">
-        <v>10</v>
-      </c>
-      <c r="E6" s="39">
-        <v>0</v>
-      </c>
-      <c r="F6" s="39">
-        <v>0</v>
-      </c>
-      <c r="G6" s="39">
-        <v>0</v>
-      </c>
-      <c r="H6" s="39">
+        <v>55</v>
+      </c>
+      <c r="D6" s="38">
+        <v>5</v>
+      </c>
+      <c r="E6" s="38">
+        <v>5</v>
+      </c>
+      <c r="F6" s="38">
+        <v>0</v>
+      </c>
+      <c r="G6" s="38">
+        <v>0</v>
+      </c>
+      <c r="H6" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="9">
-        <v>1000057</v>
+        <v>1000020</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="39">
-        <v>5</v>
-      </c>
-      <c r="E7" s="39">
-        <v>5</v>
-      </c>
-      <c r="F7" s="39">
-        <v>0</v>
-      </c>
-      <c r="G7" s="39">
-        <v>0</v>
-      </c>
-      <c r="H7" s="39">
+        <v>56</v>
+      </c>
+      <c r="D7" s="38">
+        <v>10</v>
+      </c>
+      <c r="E7" s="38">
+        <v>0</v>
+      </c>
+      <c r="F7" s="38">
+        <v>0</v>
+      </c>
+      <c r="G7" s="38">
+        <v>0</v>
+      </c>
+      <c r="H7" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="9">
-        <v>1000020</v>
+        <v>1000018</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="39">
+        <v>57</v>
+      </c>
+      <c r="D8" s="38">
         <v>10</v>
       </c>
-      <c r="E8" s="39">
-        <v>0</v>
-      </c>
-      <c r="F8" s="39">
-        <v>0</v>
-      </c>
-      <c r="G8" s="39">
-        <v>0</v>
-      </c>
-      <c r="H8" s="39">
+      <c r="E8" s="38">
+        <v>0</v>
+      </c>
+      <c r="F8" s="38">
+        <v>0</v>
+      </c>
+      <c r="G8" s="38">
+        <v>0</v>
+      </c>
+      <c r="H8" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="9">
-        <v>1000018</v>
+        <v>1000017</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="39">
+        <v>58</v>
+      </c>
+      <c r="D9" s="38">
         <v>10</v>
       </c>
-      <c r="E9" s="39">
-        <v>0</v>
-      </c>
-      <c r="F9" s="39">
-        <v>0</v>
-      </c>
-      <c r="G9" s="39">
-        <v>0</v>
-      </c>
-      <c r="H9" s="39">
-        <v>0</v>
+      <c r="E9" s="38">
+        <v>0</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0</v>
+      </c>
+      <c r="G9" s="38">
+        <v>0</v>
+      </c>
+      <c r="H9" s="38">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" s="41" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="9">
-        <v>1000017</v>
+        <v>1000016</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="39">
+        <v>59</v>
+      </c>
+      <c r="D10" s="38">
         <v>10</v>
       </c>
-      <c r="E10" s="39">
-        <v>0</v>
-      </c>
-      <c r="F10" s="39">
-        <v>0</v>
-      </c>
-      <c r="G10" s="39">
-        <v>0</v>
-      </c>
-      <c r="H10" s="39">
-        <v>0</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="M10" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="P10" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="42" t="s">
-        <v>105</v>
+      <c r="E10" s="38">
+        <v>0</v>
+      </c>
+      <c r="F10" s="38">
+        <v>0</v>
+      </c>
+      <c r="G10" s="38">
+        <v>0</v>
+      </c>
+      <c r="H10" s="38">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14">
+        <f>SUM(D3:D46)</f>
+        <v>98</v>
+      </c>
+      <c r="N10" s="14">
+        <f>SUM(E3:E46)</f>
+        <v>122</v>
+      </c>
+      <c r="O10" s="14">
+        <f>SUM(F3:F46)</f>
+        <v>128</v>
+      </c>
+      <c r="P10" s="14">
+        <f>SUM(G3:G46)</f>
+        <v>33</v>
+      </c>
+      <c r="Q10" s="14">
+        <f>SUM(H3:H46)</f>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9">
-        <v>1000016</v>
+        <v>1000015</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="39">
-        <v>10</v>
-      </c>
-      <c r="E11" s="39">
-        <v>0</v>
-      </c>
-      <c r="F11" s="39">
-        <v>0</v>
-      </c>
-      <c r="G11" s="39">
-        <v>0</v>
-      </c>
-      <c r="H11" s="39">
-        <v>0</v>
-      </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14">
-        <f>SUM(D3:D56)</f>
-        <v>119.5</v>
-      </c>
-      <c r="N11" s="14">
-        <f>SUM(E3:E56)</f>
-        <v>142.5</v>
-      </c>
-      <c r="O11" s="14">
-        <f>SUM(F3:F56)</f>
-        <v>168.5</v>
-      </c>
-      <c r="P11" s="14">
-        <f>SUM(G3:G56)</f>
-        <v>45.5</v>
-      </c>
-      <c r="Q11" s="14">
-        <f>SUM(H3:H56)</f>
-        <v>66.5</v>
+        <v>60</v>
+      </c>
+      <c r="D11" s="38">
+        <v>5</v>
+      </c>
+      <c r="E11" s="38">
+        <v>0</v>
+      </c>
+      <c r="F11" s="38">
+        <v>0</v>
+      </c>
+      <c r="G11" s="38">
+        <v>0</v>
+      </c>
+      <c r="H11" s="38">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="9">
-        <v>1000015</v>
+        <v>1000014</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="39">
+        <v>61</v>
+      </c>
+      <c r="D12" s="38">
         <v>5</v>
       </c>
-      <c r="E12" s="39">
-        <v>0</v>
-      </c>
-      <c r="F12" s="39">
-        <v>0</v>
-      </c>
-      <c r="G12" s="39">
-        <v>0</v>
-      </c>
-      <c r="H12" s="39">
+      <c r="E12" s="38">
+        <v>0</v>
+      </c>
+      <c r="F12" s="38">
+        <v>0</v>
+      </c>
+      <c r="G12" s="38">
+        <v>0</v>
+      </c>
+      <c r="H12" s="38">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="9">
-        <v>1000014</v>
+        <v>1000013</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="39">
-        <v>5</v>
-      </c>
-      <c r="E13" s="39">
-        <v>0</v>
-      </c>
-      <c r="F13" s="39">
-        <v>0</v>
-      </c>
-      <c r="G13" s="39">
-        <v>0</v>
-      </c>
-      <c r="H13" s="39">
-        <v>5</v>
+        <v>62</v>
+      </c>
+      <c r="D13" s="38">
+        <v>10</v>
+      </c>
+      <c r="E13" s="38">
+        <v>0</v>
+      </c>
+      <c r="F13" s="38">
+        <v>0</v>
+      </c>
+      <c r="G13" s="38">
+        <v>0</v>
+      </c>
+      <c r="H13" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="9">
-        <v>1000013</v>
+        <v>1000065</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="39">
+        <v>63</v>
+      </c>
+      <c r="D14" s="38">
+        <v>0</v>
+      </c>
+      <c r="E14" s="38">
         <v>10</v>
       </c>
-      <c r="E14" s="39">
-        <v>0</v>
-      </c>
-      <c r="F14" s="39">
-        <v>0</v>
-      </c>
-      <c r="G14" s="39">
-        <v>0</v>
-      </c>
-      <c r="H14" s="39">
+      <c r="F14" s="38">
+        <v>0</v>
+      </c>
+      <c r="G14" s="38">
+        <v>0</v>
+      </c>
+      <c r="H14" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" s="9">
-        <v>1000048</v>
+        <v>1000053</v>
       </c>
       <c r="C15" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="38">
+        <v>0</v>
+      </c>
+      <c r="E15" s="38">
+        <v>0</v>
+      </c>
+      <c r="F15" s="38">
+        <v>10</v>
+      </c>
+      <c r="G15" s="38">
+        <v>0</v>
+      </c>
+      <c r="H15" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="37">
+        <v>17</v>
+      </c>
+      <c r="B16" s="32">
+        <v>1000055</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="38">
+        <v>0</v>
+      </c>
+      <c r="E16" s="38">
+        <v>0</v>
+      </c>
+      <c r="F16" s="38">
+        <v>10</v>
+      </c>
+      <c r="G16" s="38">
+        <v>0</v>
+      </c>
+      <c r="H16" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="37">
+        <v>18</v>
+      </c>
+      <c r="B17" s="32">
+        <v>1000054</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="38">
+        <v>0</v>
+      </c>
+      <c r="E17" s="38">
+        <v>0</v>
+      </c>
+      <c r="F17" s="38">
+        <v>5</v>
+      </c>
+      <c r="G17" s="38">
+        <v>0</v>
+      </c>
+      <c r="H17" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="37">
+        <v>19</v>
+      </c>
+      <c r="B18" s="32">
+        <v>1000051</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="38">
+        <v>0</v>
+      </c>
+      <c r="E18" s="38">
+        <v>0</v>
+      </c>
+      <c r="F18" s="38">
+        <v>5</v>
+      </c>
+      <c r="G18" s="38">
+        <v>0</v>
+      </c>
+      <c r="H18" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="37">
+        <v>21</v>
+      </c>
+      <c r="B19" s="32">
+        <v>1000060</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="38">
+        <v>0</v>
+      </c>
+      <c r="E19" s="38">
+        <v>10</v>
+      </c>
+      <c r="F19" s="38">
+        <v>0</v>
+      </c>
+      <c r="G19" s="38">
+        <v>0</v>
+      </c>
+      <c r="H19" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="37">
+        <v>22</v>
+      </c>
+      <c r="B20" s="32">
+        <v>1000059</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="38">
+        <v>0</v>
+      </c>
+      <c r="E20" s="38">
+        <v>10</v>
+      </c>
+      <c r="F20" s="38">
+        <v>0</v>
+      </c>
+      <c r="G20" s="38">
+        <v>0</v>
+      </c>
+      <c r="H20" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="37">
+        <v>24</v>
+      </c>
+      <c r="B21" s="32">
+        <v>1000037</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="38">
+        <v>0</v>
+      </c>
+      <c r="E21" s="38">
+        <v>5</v>
+      </c>
+      <c r="F21" s="38">
+        <v>5</v>
+      </c>
+      <c r="G21" s="38">
+        <v>0</v>
+      </c>
+      <c r="H21" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="37">
+        <v>25</v>
+      </c>
+      <c r="B22" s="32">
+        <v>1000036</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="38">
+        <v>0</v>
+      </c>
+      <c r="E22" s="38">
+        <v>0</v>
+      </c>
+      <c r="F22" s="38">
+        <v>10</v>
+      </c>
+      <c r="G22" s="38">
+        <v>0</v>
+      </c>
+      <c r="H22" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="37">
+        <v>28</v>
+      </c>
+      <c r="B23" s="32">
+        <v>1000047</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="38">
+        <v>0</v>
+      </c>
+      <c r="E23" s="38">
+        <v>5</v>
+      </c>
+      <c r="F23" s="38">
+        <v>0</v>
+      </c>
+      <c r="G23" s="38">
+        <v>0</v>
+      </c>
+      <c r="H23" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="37">
+        <v>29</v>
+      </c>
+      <c r="B24" s="32">
+        <v>1000045</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="38">
+        <v>0</v>
+      </c>
+      <c r="E24" s="38">
+        <v>0</v>
+      </c>
+      <c r="F24" s="38">
+        <v>5</v>
+      </c>
+      <c r="G24" s="38">
+        <v>0</v>
+      </c>
+      <c r="H24" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="37">
+        <v>30</v>
+      </c>
+      <c r="B25" s="32">
+        <v>1000044</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="38">
+        <v>0</v>
+      </c>
+      <c r="E25" s="38">
+        <v>4</v>
+      </c>
+      <c r="F25" s="38">
+        <v>3</v>
+      </c>
+      <c r="G25" s="38">
+        <v>0</v>
+      </c>
+      <c r="H25" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="37">
+        <v>31</v>
+      </c>
+      <c r="B26" s="32">
+        <v>1000043</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="38">
+        <v>0</v>
+      </c>
+      <c r="E26" s="38">
+        <v>0</v>
+      </c>
+      <c r="F26" s="38">
+        <v>5</v>
+      </c>
+      <c r="G26" s="38">
+        <v>0</v>
+      </c>
+      <c r="H26" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="37">
+        <v>32</v>
+      </c>
+      <c r="B27" s="32">
+        <v>1000042</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="38">
+        <v>4</v>
+      </c>
+      <c r="E27" s="38">
+        <v>0</v>
+      </c>
+      <c r="F27" s="38">
+        <v>3</v>
+      </c>
+      <c r="G27" s="38">
+        <v>0</v>
+      </c>
+      <c r="H27" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="37">
+        <v>33</v>
+      </c>
+      <c r="B28" s="32">
+        <v>1000041</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="38">
+        <v>0</v>
+      </c>
+      <c r="E28" s="38">
+        <v>5</v>
+      </c>
+      <c r="F28" s="38">
+        <v>0</v>
+      </c>
+      <c r="G28" s="38">
+        <v>0</v>
+      </c>
+      <c r="H28" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="37">
+        <v>34</v>
+      </c>
+      <c r="B29" s="32">
+        <v>1000038</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="38">
+        <v>4</v>
+      </c>
+      <c r="E29" s="38">
+        <v>0</v>
+      </c>
+      <c r="F29" s="38">
+        <v>3</v>
+      </c>
+      <c r="G29" s="38">
+        <v>0</v>
+      </c>
+      <c r="H29" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="37">
+        <v>35</v>
+      </c>
+      <c r="B30" s="32">
+        <v>1000006</v>
+      </c>
+      <c r="C30" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D30" s="38">
+        <v>0</v>
+      </c>
+      <c r="E30" s="38">
+        <v>3</v>
+      </c>
+      <c r="F30" s="38">
+        <v>4</v>
+      </c>
+      <c r="G30" s="38">
+        <v>3</v>
+      </c>
+      <c r="H30" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="37">
+        <v>36</v>
+      </c>
+      <c r="B31" s="32">
+        <v>1000063</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="38">
+        <v>0</v>
+      </c>
+      <c r="E31" s="38">
+        <v>10</v>
+      </c>
+      <c r="F31" s="38">
+        <v>0</v>
+      </c>
+      <c r="G31" s="38">
+        <v>0</v>
+      </c>
+      <c r="H31" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="37">
+        <v>37</v>
+      </c>
+      <c r="B32" s="32">
+        <v>1000062</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="38">
+        <v>0</v>
+      </c>
+      <c r="E32" s="38">
+        <v>10</v>
+      </c>
+      <c r="F32" s="38">
+        <v>0</v>
+      </c>
+      <c r="G32" s="38">
+        <v>0</v>
+      </c>
+      <c r="H32" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="37">
+        <v>38</v>
+      </c>
+      <c r="B33" s="32">
+        <v>1000061</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="38">
+        <v>0</v>
+      </c>
+      <c r="E33" s="38">
+        <v>10</v>
+      </c>
+      <c r="F33" s="38">
+        <v>0</v>
+      </c>
+      <c r="G33" s="38">
+        <v>0</v>
+      </c>
+      <c r="H33" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="37">
+        <v>39</v>
+      </c>
+      <c r="B34" s="32">
+        <v>1000034</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="38">
+        <v>0</v>
+      </c>
+      <c r="E34" s="38">
+        <v>0</v>
+      </c>
+      <c r="F34" s="38">
         <v>5</v>
       </c>
-      <c r="E15" s="39">
-        <v>0</v>
-      </c>
-      <c r="F15" s="39">
+      <c r="G34" s="38">
         <v>5</v>
       </c>
-      <c r="G15" s="39">
-        <v>0</v>
-      </c>
-      <c r="H15" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="11">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9">
-        <v>1000065</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="39">
-        <v>0</v>
-      </c>
-      <c r="E16" s="39">
+      <c r="H34" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="37">
+        <v>41</v>
+      </c>
+      <c r="B35" s="32">
+        <v>1000033</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="38">
+        <v>0</v>
+      </c>
+      <c r="E35" s="38">
+        <v>0</v>
+      </c>
+      <c r="F35" s="38">
         <v>10</v>
       </c>
-      <c r="F16" s="39">
-        <v>0</v>
-      </c>
-      <c r="G16" s="39">
-        <v>0</v>
-      </c>
-      <c r="H16" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="11">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9">
-        <v>1000053</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="39">
-        <v>0</v>
-      </c>
-      <c r="E17" s="39">
-        <v>0</v>
-      </c>
-      <c r="F17" s="39">
+      <c r="G35" s="38">
+        <v>0</v>
+      </c>
+      <c r="H35" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="37">
+        <v>42</v>
+      </c>
+      <c r="B36" s="32">
+        <v>1000032</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="38">
+        <v>0</v>
+      </c>
+      <c r="E36" s="38">
+        <v>0</v>
+      </c>
+      <c r="F36" s="38">
         <v>10</v>
       </c>
-      <c r="G17" s="39">
-        <v>0</v>
-      </c>
-      <c r="H17" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="38">
-        <v>16</v>
-      </c>
-      <c r="B18" s="10">
-        <v>1000052</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="39">
-        <v>0</v>
-      </c>
-      <c r="E18" s="39">
-        <v>0</v>
-      </c>
-      <c r="F18" s="39">
+      <c r="G36" s="38">
+        <v>0</v>
+      </c>
+      <c r="H36" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="37">
+        <v>43</v>
+      </c>
+      <c r="B37" s="32">
+        <v>1000031</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="38">
+        <v>0</v>
+      </c>
+      <c r="E37" s="38">
+        <v>0</v>
+      </c>
+      <c r="F37" s="38">
         <v>10</v>
       </c>
-      <c r="G18" s="39">
-        <v>0</v>
-      </c>
-      <c r="H18" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="38">
-        <v>17</v>
-      </c>
-      <c r="B19" s="32">
-        <v>1000055</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="39">
-        <v>0</v>
-      </c>
-      <c r="E19" s="39">
-        <v>0</v>
-      </c>
-      <c r="F19" s="39">
+      <c r="G37" s="38">
+        <v>0</v>
+      </c>
+      <c r="H37" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="37">
+        <v>44</v>
+      </c>
+      <c r="B38" s="32">
+        <v>1000029</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="38">
+        <v>0</v>
+      </c>
+      <c r="E38" s="38">
+        <v>0</v>
+      </c>
+      <c r="F38" s="38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="38">
         <v>10</v>
       </c>
-      <c r="G19" s="39">
-        <v>0</v>
-      </c>
-      <c r="H19" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="38">
-        <v>18</v>
-      </c>
-      <c r="B20" s="32">
-        <v>1000054</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="39">
-        <v>0</v>
-      </c>
-      <c r="E20" s="39">
-        <v>0</v>
-      </c>
-      <c r="F20" s="39">
+      <c r="H38" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="37">
+        <v>45</v>
+      </c>
+      <c r="B39" s="32">
+        <v>1000009</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="38">
+        <v>0</v>
+      </c>
+      <c r="E39" s="38">
+        <v>0</v>
+      </c>
+      <c r="F39" s="38">
+        <v>10</v>
+      </c>
+      <c r="G39" s="38">
+        <v>0</v>
+      </c>
+      <c r="H39" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="37">
+        <v>47</v>
+      </c>
+      <c r="B40" s="32">
+        <v>1000027</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="38">
+        <v>0</v>
+      </c>
+      <c r="E40" s="38">
+        <v>10</v>
+      </c>
+      <c r="F40" s="38">
+        <v>0</v>
+      </c>
+      <c r="G40" s="38">
+        <v>0</v>
+      </c>
+      <c r="H40" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="37">
+        <v>48</v>
+      </c>
+      <c r="B41" s="32">
+        <v>1000026</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="38">
+        <v>0</v>
+      </c>
+      <c r="E41" s="38">
+        <v>10</v>
+      </c>
+      <c r="F41" s="38">
+        <v>0</v>
+      </c>
+      <c r="G41" s="38">
+        <v>0</v>
+      </c>
+      <c r="H41" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="37">
+        <v>49</v>
+      </c>
+      <c r="B42" s="32">
+        <v>1000025</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="38">
+        <v>0</v>
+      </c>
+      <c r="E42" s="38">
         <v>5</v>
       </c>
-      <c r="G20" s="39">
-        <v>0</v>
-      </c>
-      <c r="H20" s="39">
+      <c r="F42" s="38">
+        <v>0</v>
+      </c>
+      <c r="G42" s="38">
+        <v>0</v>
+      </c>
+      <c r="H42" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="38">
-        <v>19</v>
-      </c>
-      <c r="B21" s="32">
-        <v>1000051</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="39">
-        <v>0</v>
-      </c>
-      <c r="E21" s="39">
-        <v>0</v>
-      </c>
-      <c r="F21" s="39">
+    <row r="43" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="37">
+        <v>50</v>
+      </c>
+      <c r="B43" s="32">
+        <v>1000024</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="38">
+        <v>0</v>
+      </c>
+      <c r="E43" s="38">
         <v>5</v>
       </c>
-      <c r="G21" s="39">
-        <v>0</v>
-      </c>
-      <c r="H21" s="39">
+      <c r="F43" s="38">
+        <v>0</v>
+      </c>
+      <c r="G43" s="38">
+        <v>0</v>
+      </c>
+      <c r="H43" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="38">
-        <v>20</v>
-      </c>
-      <c r="B22" s="32">
-        <v>1000040</v>
-      </c>
-      <c r="C22" s="36" t="s">
+    <row r="44" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="37">
         <v>52</v>
       </c>
-      <c r="D22" s="39">
-        <v>4</v>
-      </c>
-      <c r="E22" s="39">
-        <v>3</v>
-      </c>
-      <c r="F22" s="39">
-        <v>3</v>
-      </c>
-      <c r="G22" s="39">
-        <v>0</v>
-      </c>
-      <c r="H22" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="38">
-        <v>21</v>
-      </c>
-      <c r="B23" s="32">
-        <v>1000060</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="39">
-        <v>0</v>
-      </c>
-      <c r="E23" s="39">
-        <v>10</v>
-      </c>
-      <c r="F23" s="39">
-        <v>0</v>
-      </c>
-      <c r="G23" s="39">
-        <v>0</v>
-      </c>
-      <c r="H23" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="38">
-        <v>22</v>
-      </c>
-      <c r="B24" s="32">
-        <v>1000059</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="39">
-        <v>0</v>
-      </c>
-      <c r="E24" s="39">
-        <v>10</v>
-      </c>
-      <c r="F24" s="39">
-        <v>0</v>
-      </c>
-      <c r="G24" s="39">
-        <v>0</v>
-      </c>
-      <c r="H24" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="38">
-        <v>23</v>
-      </c>
-      <c r="B25" s="32">
-        <v>1000035</v>
-      </c>
-      <c r="C25" s="36" t="s">
+      <c r="B44" s="32">
+        <v>1000023</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="38">
+        <v>0</v>
+      </c>
+      <c r="E44" s="38">
+        <v>0</v>
+      </c>
+      <c r="F44" s="38">
+        <v>5</v>
+      </c>
+      <c r="G44" s="38">
+        <v>5</v>
+      </c>
+      <c r="H44" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="37">
         <v>53</v>
       </c>
-      <c r="D25" s="39">
-        <v>0</v>
-      </c>
-      <c r="E25" s="39">
-        <v>0</v>
-      </c>
-      <c r="F25" s="39">
-        <v>10</v>
-      </c>
-      <c r="G25" s="39">
-        <v>0</v>
-      </c>
-      <c r="H25" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="38">
-        <v>24</v>
-      </c>
-      <c r="B26" s="32">
-        <v>1000037</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="39">
-        <v>0</v>
-      </c>
-      <c r="E26" s="39">
+      <c r="B45" s="32">
+        <v>1000022</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="38">
+        <v>0</v>
+      </c>
+      <c r="E45" s="38">
+        <v>0</v>
+      </c>
+      <c r="F45" s="38">
         <v>5</v>
       </c>
-      <c r="F26" s="39">
+      <c r="G45" s="38">
         <v>5</v>
       </c>
-      <c r="G26" s="39">
-        <v>0</v>
-      </c>
-      <c r="H26" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="38">
-        <v>25</v>
-      </c>
-      <c r="B27" s="32">
-        <v>1000036</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="39">
-        <v>0</v>
-      </c>
-      <c r="E27" s="39">
-        <v>0</v>
-      </c>
-      <c r="F27" s="39">
-        <v>10</v>
-      </c>
-      <c r="G27" s="39">
-        <v>0</v>
-      </c>
-      <c r="H27" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="38">
-        <v>26</v>
-      </c>
-      <c r="B28" s="32">
-        <v>1000012</v>
-      </c>
-      <c r="C28" s="36" t="s">
+      <c r="H45" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="37">
         <v>54</v>
       </c>
-      <c r="D28" s="39">
-        <v>2.5</v>
-      </c>
-      <c r="E28" s="39">
-        <v>2.5</v>
-      </c>
-      <c r="F28" s="39">
-        <v>2.5</v>
-      </c>
-      <c r="G28" s="39">
-        <v>2.5</v>
-      </c>
-      <c r="H28" s="39">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="38">
-        <v>27</v>
-      </c>
-      <c r="B29" s="32">
-        <v>1000046</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="39">
-        <v>0</v>
-      </c>
-      <c r="E29" s="39">
+      <c r="B46" s="32">
+        <v>1000021</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="38">
+        <v>0</v>
+      </c>
+      <c r="E46" s="38">
+        <v>0</v>
+      </c>
+      <c r="F46" s="38">
         <v>5</v>
       </c>
-      <c r="F29" s="39">
-        <v>0</v>
-      </c>
-      <c r="G29" s="39">
-        <v>0</v>
-      </c>
-      <c r="H29" s="39">
+      <c r="G46" s="38">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="38">
-        <v>28</v>
-      </c>
-      <c r="B30" s="32">
-        <v>1000047</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="39">
-        <v>0</v>
-      </c>
-      <c r="E30" s="39">
-        <v>5</v>
-      </c>
-      <c r="F30" s="39">
-        <v>0</v>
-      </c>
-      <c r="G30" s="39">
-        <v>0</v>
-      </c>
-      <c r="H30" s="39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="38">
-        <v>29</v>
-      </c>
-      <c r="B31" s="32">
-        <v>1000045</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="39">
-        <v>0</v>
-      </c>
-      <c r="E31" s="39">
-        <v>0</v>
-      </c>
-      <c r="F31" s="39">
-        <v>5</v>
-      </c>
-      <c r="G31" s="39">
-        <v>0</v>
-      </c>
-      <c r="H31" s="39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="38">
-        <v>30</v>
-      </c>
-      <c r="B32" s="32">
-        <v>1000044</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="39">
-        <v>0</v>
-      </c>
-      <c r="E32" s="39">
-        <v>4</v>
-      </c>
-      <c r="F32" s="39">
-        <v>3</v>
-      </c>
-      <c r="G32" s="39">
-        <v>0</v>
-      </c>
-      <c r="H32" s="39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="38">
-        <v>31</v>
-      </c>
-      <c r="B33" s="32">
-        <v>1000043</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="39">
-        <v>0</v>
-      </c>
-      <c r="E33" s="39">
-        <v>0</v>
-      </c>
-      <c r="F33" s="39">
-        <v>5</v>
-      </c>
-      <c r="G33" s="39">
-        <v>0</v>
-      </c>
-      <c r="H33" s="39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="38">
-        <v>32</v>
-      </c>
-      <c r="B34" s="32">
-        <v>1000042</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="39">
-        <v>4</v>
-      </c>
-      <c r="E34" s="39">
-        <v>0</v>
-      </c>
-      <c r="F34" s="39">
-        <v>3</v>
-      </c>
-      <c r="G34" s="39">
-        <v>0</v>
-      </c>
-      <c r="H34" s="39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="38">
-        <v>33</v>
-      </c>
-      <c r="B35" s="32">
-        <v>1000041</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="39">
-        <v>0</v>
-      </c>
-      <c r="E35" s="39">
-        <v>5</v>
-      </c>
-      <c r="F35" s="39">
-        <v>0</v>
-      </c>
-      <c r="G35" s="39">
-        <v>0</v>
-      </c>
-      <c r="H35" s="39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="38">
-        <v>34</v>
-      </c>
-      <c r="B36" s="32">
-        <v>1000038</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="39">
-        <v>4</v>
-      </c>
-      <c r="E36" s="39">
-        <v>0</v>
-      </c>
-      <c r="F36" s="39">
-        <v>3</v>
-      </c>
-      <c r="G36" s="39">
-        <v>0</v>
-      </c>
-      <c r="H36" s="39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="38">
-        <v>35</v>
-      </c>
-      <c r="B37" s="32">
-        <v>1000006</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="39">
-        <v>0</v>
-      </c>
-      <c r="E37" s="39">
-        <v>3</v>
-      </c>
-      <c r="F37" s="39">
-        <v>4</v>
-      </c>
-      <c r="G37" s="39">
-        <v>3</v>
-      </c>
-      <c r="H37" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="38">
-        <v>36</v>
-      </c>
-      <c r="B38" s="32">
-        <v>1000063</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="39">
-        <v>0</v>
-      </c>
-      <c r="E38" s="39">
-        <v>10</v>
-      </c>
-      <c r="F38" s="39">
-        <v>0</v>
-      </c>
-      <c r="G38" s="39">
-        <v>0</v>
-      </c>
-      <c r="H38" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="38">
-        <v>37</v>
-      </c>
-      <c r="B39" s="32">
-        <v>1000062</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="39">
-        <v>0</v>
-      </c>
-      <c r="E39" s="39">
-        <v>10</v>
-      </c>
-      <c r="F39" s="39">
-        <v>0</v>
-      </c>
-      <c r="G39" s="39">
-        <v>0</v>
-      </c>
-      <c r="H39" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="38">
-        <v>38</v>
-      </c>
-      <c r="B40" s="32">
-        <v>1000061</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="39">
-        <v>0</v>
-      </c>
-      <c r="E40" s="39">
-        <v>10</v>
-      </c>
-      <c r="F40" s="39">
-        <v>0</v>
-      </c>
-      <c r="G40" s="39">
-        <v>0</v>
-      </c>
-      <c r="H40" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="38">
-        <v>39</v>
-      </c>
-      <c r="B41" s="32">
-        <v>1000034</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="39">
-        <v>0</v>
-      </c>
-      <c r="E41" s="39">
-        <v>0</v>
-      </c>
-      <c r="F41" s="39">
-        <v>5</v>
-      </c>
-      <c r="G41" s="39">
-        <v>5</v>
-      </c>
-      <c r="H41" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="38">
-        <v>40</v>
-      </c>
-      <c r="B42" s="32">
-        <v>1000030</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="39">
-        <v>0</v>
-      </c>
-      <c r="E42" s="39">
-        <v>0</v>
-      </c>
-      <c r="F42" s="39">
-        <v>10</v>
-      </c>
-      <c r="G42" s="39">
-        <v>0</v>
-      </c>
-      <c r="H42" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="38">
-        <v>41</v>
-      </c>
-      <c r="B43" s="32">
-        <v>1000033</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="39">
-        <v>0</v>
-      </c>
-      <c r="E43" s="39">
-        <v>0</v>
-      </c>
-      <c r="F43" s="39">
-        <v>10</v>
-      </c>
-      <c r="G43" s="39">
-        <v>0</v>
-      </c>
-      <c r="H43" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="38">
-        <v>42</v>
-      </c>
-      <c r="B44" s="32">
-        <v>1000032</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="39">
-        <v>0</v>
-      </c>
-      <c r="E44" s="39">
-        <v>0</v>
-      </c>
-      <c r="F44" s="39">
-        <v>10</v>
-      </c>
-      <c r="G44" s="39">
-        <v>0</v>
-      </c>
-      <c r="H44" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="38">
-        <v>43</v>
-      </c>
-      <c r="B45" s="32">
-        <v>1000031</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="39">
-        <v>0</v>
-      </c>
-      <c r="E45" s="39">
-        <v>0</v>
-      </c>
-      <c r="F45" s="39">
-        <v>10</v>
-      </c>
-      <c r="G45" s="39">
-        <v>0</v>
-      </c>
-      <c r="H45" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="38">
-        <v>44</v>
-      </c>
-      <c r="B46" s="32">
-        <v>1000029</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="39">
-        <v>0</v>
-      </c>
-      <c r="E46" s="39">
-        <v>0</v>
-      </c>
-      <c r="F46" s="39">
-        <v>0</v>
-      </c>
-      <c r="G46" s="39">
-        <v>10</v>
-      </c>
-      <c r="H46" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="38">
-        <v>45</v>
-      </c>
-      <c r="B47" s="32">
-        <v>1000009</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="39">
-        <v>0</v>
-      </c>
-      <c r="E47" s="39">
-        <v>0</v>
-      </c>
-      <c r="F47" s="39">
-        <v>10</v>
-      </c>
-      <c r="G47" s="39">
-        <v>0</v>
-      </c>
-      <c r="H47" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="38">
-        <v>46</v>
-      </c>
-      <c r="B48" s="32">
-        <v>1000008</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="39">
-        <v>0</v>
-      </c>
-      <c r="E48" s="39">
-        <v>10</v>
-      </c>
-      <c r="F48" s="39">
-        <v>0</v>
-      </c>
-      <c r="G48" s="39">
-        <v>0</v>
-      </c>
-      <c r="H48" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="38">
-        <v>47</v>
-      </c>
-      <c r="B49" s="32">
-        <v>1000027</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="39">
-        <v>0</v>
-      </c>
-      <c r="E49" s="39">
-        <v>10</v>
-      </c>
-      <c r="F49" s="39">
-        <v>0</v>
-      </c>
-      <c r="G49" s="39">
-        <v>0</v>
-      </c>
-      <c r="H49" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="38">
-        <v>48</v>
-      </c>
-      <c r="B50" s="32">
-        <v>1000026</v>
-      </c>
-      <c r="C50" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="39">
-        <v>0</v>
-      </c>
-      <c r="E50" s="39">
-        <v>10</v>
-      </c>
-      <c r="F50" s="39">
-        <v>0</v>
-      </c>
-      <c r="G50" s="39">
-        <v>0</v>
-      </c>
-      <c r="H50" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="38">
-        <v>49</v>
-      </c>
-      <c r="B51" s="32">
-        <v>1000025</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="39">
-        <v>0</v>
-      </c>
-      <c r="E51" s="39">
-        <v>5</v>
-      </c>
-      <c r="F51" s="39">
-        <v>0</v>
-      </c>
-      <c r="G51" s="39">
-        <v>0</v>
-      </c>
-      <c r="H51" s="39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="38">
-        <v>50</v>
-      </c>
-      <c r="B52" s="32">
-        <v>1000024</v>
-      </c>
-      <c r="C52" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D52" s="39">
-        <v>0</v>
-      </c>
-      <c r="E52" s="39">
-        <v>5</v>
-      </c>
-      <c r="F52" s="39">
-        <v>0</v>
-      </c>
-      <c r="G52" s="39">
-        <v>0</v>
-      </c>
-      <c r="H52" s="39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A53" s="38">
-        <v>51</v>
-      </c>
-      <c r="B53" s="32">
-        <v>1000007</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="39">
-        <v>0</v>
-      </c>
-      <c r="E53" s="39">
-        <v>0</v>
-      </c>
-      <c r="F53" s="39">
-        <v>0</v>
-      </c>
-      <c r="G53" s="39">
-        <v>10</v>
-      </c>
-      <c r="H53" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A54" s="38">
-        <v>52</v>
-      </c>
-      <c r="B54" s="32">
-        <v>1000023</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D54" s="39">
-        <v>0</v>
-      </c>
-      <c r="E54" s="39">
-        <v>0</v>
-      </c>
-      <c r="F54" s="39">
-        <v>5</v>
-      </c>
-      <c r="G54" s="39">
-        <v>5</v>
-      </c>
-      <c r="H54" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A55" s="38">
-        <v>53</v>
-      </c>
-      <c r="B55" s="32">
-        <v>1000022</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" s="39">
-        <v>0</v>
-      </c>
-      <c r="E55" s="39">
-        <v>0</v>
-      </c>
-      <c r="F55" s="39">
-        <v>5</v>
-      </c>
-      <c r="G55" s="39">
-        <v>5</v>
-      </c>
-      <c r="H55" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="38">
-        <v>54</v>
-      </c>
-      <c r="B56" s="32">
-        <v>1000021</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" s="39">
-        <v>0</v>
-      </c>
-      <c r="E56" s="39">
-        <v>0</v>
-      </c>
-      <c r="F56" s="39">
-        <v>5</v>
-      </c>
-      <c r="G56" s="39">
-        <v>5</v>
-      </c>
-      <c r="H56" s="39">
+      <c r="H46" s="38">
         <v>0</v>
       </c>
     </row>
@@ -8927,6 +8634,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8934,14 +8642,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253E7184-E062-40F0-A428-AA79917B4B7E}">
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0">
       <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" style="54" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.125" style="8" bestFit="1" customWidth="1"/>
@@ -8949,2833 +8657,2833 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="43">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="43">
+      <c r="A4" s="42">
         <v>2</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="42">
+        <v>3</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="42">
+        <v>4</v>
+      </c>
+      <c r="B6" s="52">
+        <v>3.2899999999999999E+56</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="42">
+        <v>5</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="E7" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="42">
+        <v>6</v>
+      </c>
+      <c r="B8" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="C8" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="D8" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="44" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="43">
-        <v>3</v>
-      </c>
-      <c r="B5" s="63" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="42">
+        <v>7</v>
+      </c>
+      <c r="B9" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C9" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="42">
+        <v>8</v>
+      </c>
+      <c r="B10" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="C10" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="D10" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="42">
+        <v>9</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="42">
+        <v>10</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="42">
+        <v>11</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="43">
-        <v>4</v>
-      </c>
-      <c r="B6" s="64">
-        <v>3.2899999999999999E+56</v>
-      </c>
-      <c r="C6" s="45" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="42">
+        <v>12</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="42">
+        <v>13</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="42">
+        <v>14</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="42">
+        <v>15</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="42">
+        <v>16</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="46">
+        <v>17</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="46">
+        <v>18</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="46">
+        <v>19</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="46">
+        <v>20</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="46">
+        <v>21</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="46">
+        <v>22</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="46">
+        <v>23</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="46">
+        <v>24</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="46">
+        <v>25</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="46">
+        <v>26</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="46">
+        <v>27</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="46">
+        <v>28</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="46">
+        <v>29</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="46">
+        <v>30</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="46">
+        <v>31</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>494</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="46">
+        <v>32</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="46">
+        <v>33</v>
+      </c>
+      <c r="B35" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="46">
+        <v>34</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="46">
+        <v>35</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>495</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="46">
+        <v>36</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="46">
+        <v>37</v>
+      </c>
+      <c r="B39" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="46">
+        <v>38</v>
+      </c>
+      <c r="B40" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="46">
+        <v>39</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="46">
+        <v>40</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="46">
+        <v>41</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="E43" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="46">
+        <v>42</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="E44" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="46">
+        <v>43</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="46">
+        <v>45</v>
+      </c>
+      <c r="B47" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="E47" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="46">
+        <v>46</v>
+      </c>
+      <c r="B48" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="46">
+        <v>47</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="D49" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="46">
+        <v>48</v>
+      </c>
+      <c r="B50" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="E50" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="46">
+        <v>49</v>
+      </c>
+      <c r="B51" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="D51" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="E51" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="46">
+        <v>50</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="C52" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="D52" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="E52" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="46">
+        <v>51</v>
+      </c>
+      <c r="B53" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="C53" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="E53" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="46">
+        <v>52</v>
+      </c>
+      <c r="B54" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="C54" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D54" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="E54" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="46">
+        <v>53</v>
+      </c>
+      <c r="B55" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="C55" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="D55" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="E55" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="46">
+        <v>54</v>
+      </c>
+      <c r="B56" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="D56" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="E56" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="46">
+        <v>55</v>
+      </c>
+      <c r="B57" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="E57" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="46">
+        <v>56</v>
+      </c>
+      <c r="B58" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="C58" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="D58" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="46">
+        <v>57</v>
+      </c>
+      <c r="B59" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="D59" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="E59" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="46">
+        <v>58</v>
+      </c>
+      <c r="B60" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="D60" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="E60" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="46">
+        <v>59</v>
+      </c>
+      <c r="B61" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="C61" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="D61" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="E61" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="46">
+        <v>60</v>
+      </c>
+      <c r="B62" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="D62" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="E62" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="46">
+        <v>61</v>
+      </c>
+      <c r="B63" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="C63" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="D63" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="E63" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="46">
+        <v>62</v>
+      </c>
+      <c r="B64" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="C64" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="D64" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="E64" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="46">
+        <v>63</v>
+      </c>
+      <c r="B65" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="C65" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="D65" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="46">
+        <v>64</v>
+      </c>
+      <c r="B66" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="C66" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="D66" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="46">
+        <v>65</v>
+      </c>
+      <c r="B67" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="C67" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="E67" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="46">
+        <v>66</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="C68" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="D68" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="E68" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="46">
+        <v>67</v>
+      </c>
+      <c r="B69" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="C69" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="D69" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="E69" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="46">
+        <v>68</v>
+      </c>
+      <c r="B70" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="C70" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="D70" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="E70" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="46">
+        <v>69</v>
+      </c>
+      <c r="B71" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="D71" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="E71" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="46">
+        <v>70</v>
+      </c>
+      <c r="B72" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="C72" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="D72" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="E72" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="46">
+        <v>71</v>
+      </c>
+      <c r="B73" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="C73" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="D73" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="E73" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="46">
+        <v>72</v>
+      </c>
+      <c r="B74" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="C74" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="D74" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="E74" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="46">
+        <v>73</v>
+      </c>
+      <c r="B75" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="C75" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="D75" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="E75" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="46">
+        <v>74</v>
+      </c>
+      <c r="B76" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="C76" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="D76" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="E76" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="46">
+        <v>75</v>
+      </c>
+      <c r="B77" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="C77" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="D77" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="E77" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="46">
+        <v>76</v>
+      </c>
+      <c r="B78" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="C78" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="D78" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="E78" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="46">
+        <v>77</v>
+      </c>
+      <c r="B79" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="C79" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="D79" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="E79" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="46">
+        <v>78</v>
+      </c>
+      <c r="B80" s="53" t="s">
+        <v>309</v>
+      </c>
+      <c r="C80" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="D80" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="E80" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="46">
+        <v>79</v>
+      </c>
+      <c r="B81" s="53" t="s">
+        <v>312</v>
+      </c>
+      <c r="C81" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="D81" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="E81" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="46">
+        <v>80</v>
+      </c>
+      <c r="B82" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="C82" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="D82" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="E82" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="46">
+        <v>81</v>
+      </c>
+      <c r="B83" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="C83" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="D83" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="E83" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="46">
+        <v>82</v>
+      </c>
+      <c r="B84" s="53" t="s">
+        <v>321</v>
+      </c>
+      <c r="C84" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="D84" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="E84" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="46">
+        <v>83</v>
+      </c>
+      <c r="B85" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="C85" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="D85" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="E85" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="46">
+        <v>84</v>
+      </c>
+      <c r="B86" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="C86" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="D86" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="E86" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="46">
+        <v>85</v>
+      </c>
+      <c r="B87" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="C87" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D87" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="E87" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="46">
+        <v>86</v>
+      </c>
+      <c r="B88" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="C88" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="D88" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="E88" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="46">
+        <v>87</v>
+      </c>
+      <c r="B89" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="C89" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="D89" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="E89" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" s="46">
+        <v>88</v>
+      </c>
+      <c r="B90" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="C90" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="D90" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="E90" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" s="46">
+        <v>89</v>
+      </c>
+      <c r="B91" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="C91" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="E91" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" s="46">
+        <v>90</v>
+      </c>
+      <c r="B92" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="C92" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="E92" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="46">
+        <v>91</v>
+      </c>
+      <c r="B93" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="C93" s="47" t="s">
+        <v>348</v>
+      </c>
+      <c r="D93" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="E93" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="46">
+        <v>92</v>
+      </c>
+      <c r="B94" s="51">
+        <v>2842001</v>
+      </c>
+      <c r="C94" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="D94" s="47" t="s">
+        <v>351</v>
+      </c>
+      <c r="E94" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" s="46">
+        <v>93</v>
+      </c>
+      <c r="B95" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="C95" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="D95" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="E95" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="46">
+        <v>94</v>
+      </c>
+      <c r="B96" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="D96" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="E96" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="46">
+        <v>95</v>
+      </c>
+      <c r="B97" s="53" t="s">
+        <v>358</v>
+      </c>
+      <c r="C97" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="D97" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="E97" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" s="46">
+        <v>96</v>
+      </c>
+      <c r="B98" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="C98" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="D98" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="E98" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" s="46">
+        <v>97</v>
+      </c>
+      <c r="B99" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="C99" s="47" t="s">
+        <v>365</v>
+      </c>
+      <c r="D99" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="E99" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" s="46">
+        <v>98</v>
+      </c>
+      <c r="B100" s="53" t="s">
+        <v>367</v>
+      </c>
+      <c r="C100" s="47" t="s">
+        <v>368</v>
+      </c>
+      <c r="D100" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="E100" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" s="46">
+        <v>99</v>
+      </c>
+      <c r="B101" s="53" t="s">
+        <v>370</v>
+      </c>
+      <c r="C101" s="47" t="s">
+        <v>371</v>
+      </c>
+      <c r="D101" s="47" t="s">
+        <v>372</v>
+      </c>
+      <c r="E101" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" s="46">
+        <v>100</v>
+      </c>
+      <c r="B102" s="53" t="s">
+        <v>373</v>
+      </c>
+      <c r="C102" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="D102" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E102" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="46">
+        <v>101</v>
+      </c>
+      <c r="B103" s="53" t="s">
+        <v>375</v>
+      </c>
+      <c r="C103" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="D103" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="E103" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" s="46">
+        <v>102</v>
+      </c>
+      <c r="B104" s="51">
+        <v>2038875</v>
+      </c>
+      <c r="C104" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="D104" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="E104" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" s="46">
+        <v>103</v>
+      </c>
+      <c r="B105" s="53" t="s">
+        <v>380</v>
+      </c>
+      <c r="C105" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="D105" s="47" t="s">
+        <v>382</v>
+      </c>
+      <c r="E105" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" s="46">
+        <v>104</v>
+      </c>
+      <c r="B106" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="C106" s="47" t="s">
+        <v>384</v>
+      </c>
+      <c r="D106" s="47" t="s">
+        <v>385</v>
+      </c>
+      <c r="E106" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" s="46">
+        <v>105</v>
+      </c>
+      <c r="B107" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="C107" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="D107" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" s="46">
+        <v>106</v>
+      </c>
+      <c r="B108" s="53" t="s">
+        <v>389</v>
+      </c>
+      <c r="C108" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="D108" s="47" t="s">
+        <v>391</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109" s="46">
+        <v>107</v>
+      </c>
+      <c r="B109" s="53" t="s">
+        <v>392</v>
+      </c>
+      <c r="C109" s="47" t="s">
+        <v>394</v>
+      </c>
+      <c r="D109" s="47" t="s">
+        <v>393</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" s="46">
+        <v>108</v>
+      </c>
+      <c r="B110" s="53" t="s">
+        <v>395</v>
+      </c>
+      <c r="C110" s="47" t="s">
+        <v>396</v>
+      </c>
+      <c r="D110" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" s="46">
+        <v>109</v>
+      </c>
+      <c r="B111" s="53" t="s">
+        <v>398</v>
+      </c>
+      <c r="C111" s="47" t="s">
+        <v>399</v>
+      </c>
+      <c r="D111" s="47" t="s">
+        <v>400</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" s="46">
+        <v>110</v>
+      </c>
+      <c r="B112" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="C112" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="D112" s="47" t="s">
+        <v>403</v>
+      </c>
+      <c r="E112" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" s="46">
+        <v>111</v>
+      </c>
+      <c r="B113" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="C113" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="D113" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="E113" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" s="46">
+        <v>112</v>
+      </c>
+      <c r="B114" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="C114" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="D114" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="E114" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" s="46">
         <v>113</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="B115" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="C115" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="D115" s="47" t="s">
+        <v>410</v>
+      </c>
+      <c r="E115" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" s="46">
         <v>114</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="B116" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="C116" s="47" t="s">
+        <v>412</v>
+      </c>
+      <c r="D116" s="47" t="s">
+        <v>413</v>
+      </c>
+      <c r="E116" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" s="46">
+        <v>115</v>
+      </c>
+      <c r="B117" s="53" t="s">
+        <v>414</v>
+      </c>
+      <c r="C117" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="D117" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="E117" s="45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="43">
-        <v>5</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="45" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118" s="46">
         <v>116</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="B118" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="C118" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="D118" s="47" t="s">
+        <v>419</v>
+      </c>
+      <c r="E118" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119" s="46">
         <v>117</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="B119" s="53" t="s">
+        <v>420</v>
+      </c>
+      <c r="C119" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D119" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="E119" s="45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="43">
-        <v>6</v>
-      </c>
-      <c r="B8" s="63" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A120" s="46">
         <v>118</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="B120" s="53" t="s">
+        <v>422</v>
+      </c>
+      <c r="C120" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="D120" s="47" t="s">
+        <v>423</v>
+      </c>
+      <c r="E120" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A121" s="46">
         <v>119</v>
       </c>
-      <c r="D8" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="45" t="s">
+      <c r="B121" s="51">
+        <v>8350337</v>
+      </c>
+      <c r="C121" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="D121" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="E121" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A122" s="46">
+        <v>120</v>
+      </c>
+      <c r="B122" s="51">
+        <v>3327624</v>
+      </c>
+      <c r="C122" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="D122" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A123" s="46">
+        <v>121</v>
+      </c>
+      <c r="B123" s="53" t="s">
+        <v>427</v>
+      </c>
+      <c r="C123" s="47" t="s">
+        <v>428</v>
+      </c>
+      <c r="D123" s="47" t="s">
+        <v>429</v>
+      </c>
+      <c r="E123" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A124" s="46">
+        <v>122</v>
+      </c>
+      <c r="B124" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="C124" s="47" t="s">
+        <v>431</v>
+      </c>
+      <c r="D124" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A125" s="46">
+        <v>123</v>
+      </c>
+      <c r="B125" s="53" t="s">
+        <v>432</v>
+      </c>
+      <c r="C125" s="47" t="s">
+        <v>433</v>
+      </c>
+      <c r="D125" s="47" t="s">
+        <v>434</v>
+      </c>
+      <c r="E125" s="45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="43">
-        <v>7</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="45" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A126" s="46">
+        <v>124</v>
+      </c>
+      <c r="B126" s="53" t="s">
+        <v>435</v>
+      </c>
+      <c r="C126" s="47" t="s">
+        <v>437</v>
+      </c>
+      <c r="D126" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="E126" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A127" s="46">
+        <v>125</v>
+      </c>
+      <c r="B127" s="53" t="s">
+        <v>438</v>
+      </c>
+      <c r="C127" s="47" t="s">
+        <v>437</v>
+      </c>
+      <c r="D127" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="E127" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A128" s="46">
+        <v>126</v>
+      </c>
+      <c r="B128" s="53" t="s">
+        <v>439</v>
+      </c>
+      <c r="C128" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="D128" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="E128" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A129" s="46">
+        <v>127</v>
+      </c>
+      <c r="B129" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="C129" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="D129" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="E129" s="45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="43">
-        <v>8</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="45" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A130" s="46">
+        <v>128</v>
+      </c>
+      <c r="B130" s="53" t="s">
+        <v>444</v>
+      </c>
+      <c r="C130" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="D130" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="E130" s="45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="43">
-        <v>9</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="45" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A131" s="46">
+        <v>129</v>
+      </c>
+      <c r="B131" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="C131" s="47" t="s">
+        <v>447</v>
+      </c>
+      <c r="D131" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="E131" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A132" s="46">
+        <v>130</v>
+      </c>
+      <c r="B132" s="53" t="s">
+        <v>448</v>
+      </c>
+      <c r="C132" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="D132" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="E132" s="45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="43">
-        <v>10</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="45" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A133" s="46">
+        <v>131</v>
+      </c>
+      <c r="B133" s="53" t="s">
+        <v>450</v>
+      </c>
+      <c r="C133" s="47" t="s">
+        <v>451</v>
+      </c>
+      <c r="D133" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="E133" s="45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="43">
-        <v>11</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="45" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A134" s="46">
+        <v>132</v>
+      </c>
+      <c r="B134" s="53" t="s">
+        <v>452</v>
+      </c>
+      <c r="C134" s="47" t="s">
+        <v>453</v>
+      </c>
+      <c r="D134" s="47" t="s">
+        <v>454</v>
+      </c>
+      <c r="E134" s="45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="43">
-        <v>12</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="45" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A135" s="46">
+        <v>133</v>
+      </c>
+      <c r="B135" s="53" t="s">
+        <v>455</v>
+      </c>
+      <c r="C135" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="D135" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="E135" s="45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="43">
-        <v>13</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="45" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A136" s="46">
         <v>134</v>
       </c>
-      <c r="D15" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="45" t="s">
+      <c r="B136" s="53" t="s">
+        <v>456</v>
+      </c>
+      <c r="C136" s="47" t="s">
+        <v>457</v>
+      </c>
+      <c r="D136" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="E136" s="45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="43">
-        <v>14</v>
-      </c>
-      <c r="B16" s="63" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A137" s="46">
         <v>135</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="B137" s="53" t="s">
+        <v>459</v>
+      </c>
+      <c r="C137" s="47" t="s">
+        <v>460</v>
+      </c>
+      <c r="D137" s="47" t="s">
+        <v>461</v>
+      </c>
+      <c r="E137" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A138" s="46">
         <v>136</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="B138" s="53" t="s">
+        <v>462</v>
+      </c>
+      <c r="C138" s="47" t="s">
+        <v>463</v>
+      </c>
+      <c r="D138" s="47" t="s">
+        <v>464</v>
+      </c>
+      <c r="E138" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A139" s="46">
         <v>137</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="B139" s="53" t="s">
+        <v>465</v>
+      </c>
+      <c r="C139" s="47" t="s">
+        <v>466</v>
+      </c>
+      <c r="D139" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="E139" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A140" s="46">
+        <v>138</v>
+      </c>
+      <c r="B140" s="53" t="s">
+        <v>467</v>
+      </c>
+      <c r="C140" s="47" t="s">
+        <v>468</v>
+      </c>
+      <c r="D140" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="E140" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A141" s="46">
+        <v>139</v>
+      </c>
+      <c r="B141" s="53" t="s">
+        <v>469</v>
+      </c>
+      <c r="C141" s="47" t="s">
+        <v>470</v>
+      </c>
+      <c r="D141" s="47" t="s">
+        <v>471</v>
+      </c>
+      <c r="E141" s="45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="43">
-        <v>15</v>
-      </c>
-      <c r="B17" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="45" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A142" s="46">
         <v>140</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="B142" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="C142" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="D142" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="E142" s="45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="43">
-        <v>16</v>
-      </c>
-      <c r="B18" s="63" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A143" s="46">
         <v>141</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="B143" s="53" t="s">
+        <v>475</v>
+      </c>
+      <c r="C143" s="47" t="s">
+        <v>476</v>
+      </c>
+      <c r="D143" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="E143" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A144" s="46">
         <v>142</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="B144" s="53" t="s">
+        <v>477</v>
+      </c>
+      <c r="C144" s="47" t="s">
+        <v>478</v>
+      </c>
+      <c r="D144" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="E144" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A145" s="46">
         <v>143</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="B145" s="53" t="s">
+        <v>479</v>
+      </c>
+      <c r="C145" s="47" t="s">
+        <v>470</v>
+      </c>
+      <c r="D145" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="E145" s="45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="47">
-        <v>17</v>
-      </c>
-      <c r="B19" s="63" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A146" s="46">
         <v>144</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="B146" s="53" t="s">
+        <v>481</v>
+      </c>
+      <c r="C146" s="47" t="s">
+        <v>482</v>
+      </c>
+      <c r="D146" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="E146" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A147" s="46">
         <v>145</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="B147" s="53" t="s">
+        <v>483</v>
+      </c>
+      <c r="C147" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="D147" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="E147" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A148" s="46">
         <v>146</v>
       </c>
-      <c r="E19" s="45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="47">
-        <v>18</v>
-      </c>
-      <c r="B20" s="65" t="s">
+      <c r="B148" s="53" t="s">
+        <v>485</v>
+      </c>
+      <c r="C148" s="47" t="s">
+        <v>478</v>
+      </c>
+      <c r="D148" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="E148" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A149" s="46">
         <v>147</v>
       </c>
-      <c r="C20" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="48" t="s">
+      <c r="B149" s="53" t="s">
+        <v>486</v>
+      </c>
+      <c r="C149" s="47" t="s">
+        <v>487</v>
+      </c>
+      <c r="D149" s="47" t="s">
+        <v>488</v>
+      </c>
+      <c r="E149" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A150" s="46">
         <v>148</v>
       </c>
-      <c r="E20" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="47">
-        <v>19</v>
-      </c>
-      <c r="B21" s="65" t="s">
+      <c r="B150" s="53" t="s">
+        <v>489</v>
+      </c>
+      <c r="C150" s="47" t="s">
+        <v>490</v>
+      </c>
+      <c r="D150" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="E150" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A151" s="46">
         <v>149</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="B151" s="53" t="s">
+        <v>491</v>
+      </c>
+      <c r="C151" s="47" t="s">
+        <v>492</v>
+      </c>
+      <c r="D151" s="47" t="s">
+        <v>493</v>
+      </c>
+      <c r="E151" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A152" s="46">
         <v>150</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="B152" s="53"/>
+      <c r="C152" s="47"/>
+      <c r="D152" s="47"/>
+      <c r="E152" s="47"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A153" s="46">
         <v>151</v>
       </c>
-      <c r="E21" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="47">
-        <v>20</v>
-      </c>
-      <c r="B22" s="65" t="s">
+      <c r="B153" s="53"/>
+      <c r="C153" s="47"/>
+      <c r="D153" s="47"/>
+      <c r="E153" s="47"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A154" s="46">
         <v>152</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="B154" s="53"/>
+      <c r="C154" s="47"/>
+      <c r="D154" s="47"/>
+      <c r="E154" s="47"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A155" s="46">
         <v>153</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="B155" s="53"/>
+      <c r="C155" s="47"/>
+      <c r="D155" s="47"/>
+      <c r="E155" s="47"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A156" s="46">
         <v>154</v>
       </c>
-      <c r="E22" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="47">
-        <v>21</v>
-      </c>
-      <c r="B23" s="65" t="s">
+      <c r="B156" s="53"/>
+      <c r="C156" s="47"/>
+      <c r="D156" s="47"/>
+      <c r="E156" s="47"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A157" s="46">
         <v>155</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="B157" s="53"/>
+      <c r="C157" s="47"/>
+      <c r="D157" s="47"/>
+      <c r="E157" s="47"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A158" s="46">
         <v>156</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="B158" s="53"/>
+      <c r="C158" s="47"/>
+      <c r="D158" s="47"/>
+      <c r="E158" s="47"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A159" s="46">
         <v>157</v>
       </c>
-      <c r="E23" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="47">
-        <v>22</v>
-      </c>
-      <c r="B24" s="65" t="s">
+      <c r="B159" s="53"/>
+      <c r="C159" s="47"/>
+      <c r="D159" s="47"/>
+      <c r="E159" s="47"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A160" s="46">
         <v>158</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="B160" s="53"/>
+      <c r="C160" s="47"/>
+      <c r="D160" s="47"/>
+      <c r="E160" s="47"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A161" s="46">
         <v>159</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="B161" s="53"/>
+      <c r="C161" s="47"/>
+      <c r="D161" s="47"/>
+      <c r="E161" s="47"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A162" s="46">
         <v>160</v>
       </c>
-      <c r="E24" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="47">
-        <v>23</v>
-      </c>
-      <c r="B25" s="65" t="s">
+      <c r="B162" s="53"/>
+      <c r="C162" s="47"/>
+      <c r="D162" s="47"/>
+      <c r="E162" s="47"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A163" s="46">
         <v>161</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="B163" s="53"/>
+      <c r="C163" s="47"/>
+      <c r="D163" s="47"/>
+      <c r="E163" s="47"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A164" s="46">
         <v>162</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="B164" s="53"/>
+      <c r="C164" s="47"/>
+      <c r="D164" s="47"/>
+      <c r="E164" s="47"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A165" s="46">
         <v>163</v>
       </c>
-      <c r="E25" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="47">
-        <v>24</v>
-      </c>
-      <c r="B26" s="65" t="s">
+      <c r="B165" s="53"/>
+      <c r="C165" s="47"/>
+      <c r="D165" s="47"/>
+      <c r="E165" s="47"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A166" s="46">
         <v>164</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="B166" s="53"/>
+      <c r="C166" s="47"/>
+      <c r="D166" s="47"/>
+      <c r="E166" s="47"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A167" s="46">
         <v>165</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="B167" s="53"/>
+      <c r="C167" s="47"/>
+      <c r="D167" s="47"/>
+      <c r="E167" s="47"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A168" s="46">
         <v>166</v>
       </c>
-      <c r="E26" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="47">
-        <v>25</v>
-      </c>
-      <c r="B27" s="65" t="s">
+      <c r="B168" s="53"/>
+      <c r="C168" s="47"/>
+      <c r="D168" s="47"/>
+      <c r="E168" s="47"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A169" s="46">
         <v>167</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="B169" s="53"/>
+      <c r="C169" s="47"/>
+      <c r="D169" s="47"/>
+      <c r="E169" s="47"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A170" s="46">
         <v>168</v>
       </c>
-      <c r="D27" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="47">
-        <v>26</v>
-      </c>
-      <c r="B28" s="65" t="s">
+      <c r="B170" s="53"/>
+      <c r="C170" s="47"/>
+      <c r="D170" s="47"/>
+      <c r="E170" s="47"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A171" s="46">
         <v>169</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="B171" s="53"/>
+      <c r="C171" s="47"/>
+      <c r="D171" s="47"/>
+      <c r="E171" s="47"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A172" s="46">
         <v>170</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="B172" s="53"/>
+      <c r="C172" s="47"/>
+      <c r="D172" s="47"/>
+      <c r="E172" s="47"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A173" s="46">
         <v>171</v>
       </c>
-      <c r="E28" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="47">
-        <v>27</v>
-      </c>
-      <c r="B29" s="65" t="s">
+      <c r="B173" s="53"/>
+      <c r="C173" s="47"/>
+      <c r="D173" s="47"/>
+      <c r="E173" s="47"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A174" s="46">
         <v>172</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="B174" s="53"/>
+      <c r="C174" s="47"/>
+      <c r="D174" s="47"/>
+      <c r="E174" s="47"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A175" s="46">
         <v>173</v>
       </c>
-      <c r="D29" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="47">
-        <v>28</v>
-      </c>
-      <c r="B30" s="65" t="s">
+      <c r="B175" s="53"/>
+      <c r="C175" s="47"/>
+      <c r="D175" s="47"/>
+      <c r="E175" s="47"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A176" s="46">
         <v>174</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="B176" s="53"/>
+      <c r="C176" s="47"/>
+      <c r="D176" s="47"/>
+      <c r="E176" s="47"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A177" s="46">
         <v>175</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="B177" s="53"/>
+      <c r="C177" s="47"/>
+      <c r="D177" s="47"/>
+      <c r="E177" s="47"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A178" s="46">
         <v>176</v>
       </c>
-      <c r="E30" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="47">
-        <v>29</v>
-      </c>
-      <c r="B31" s="65" t="s">
+      <c r="B178" s="53"/>
+      <c r="C178" s="47"/>
+      <c r="D178" s="47"/>
+      <c r="E178" s="47"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A179" s="46">
         <v>177</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="B179" s="53"/>
+      <c r="C179" s="47"/>
+      <c r="D179" s="47"/>
+      <c r="E179" s="47"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A180" s="46">
         <v>178</v>
       </c>
-      <c r="D31" s="48" t="s">
+      <c r="B180" s="53"/>
+      <c r="C180" s="47"/>
+      <c r="D180" s="47"/>
+      <c r="E180" s="47"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A181" s="46">
         <v>179</v>
       </c>
-      <c r="E31" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="47">
-        <v>30</v>
-      </c>
-      <c r="B32" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="E32" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="47">
-        <v>31</v>
-      </c>
-      <c r="B33" s="64" t="s">
-        <v>504</v>
-      </c>
-      <c r="C33" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="47">
-        <v>32</v>
-      </c>
-      <c r="B34" s="65" t="s">
-        <v>185</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="E34" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="47">
-        <v>33</v>
-      </c>
-      <c r="B35" s="65" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="D35" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="E35" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="47">
-        <v>34</v>
-      </c>
-      <c r="B36" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="D36" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="E36" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="47">
-        <v>35</v>
-      </c>
-      <c r="B37" s="63" t="s">
-        <v>505</v>
-      </c>
-      <c r="C37" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="E37" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="47">
-        <v>36</v>
-      </c>
-      <c r="B38" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="47">
-        <v>37</v>
-      </c>
-      <c r="B39" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="C39" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="D39" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="47">
-        <v>38</v>
-      </c>
-      <c r="B40" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="E40" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="47">
-        <v>39</v>
-      </c>
-      <c r="B41" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="E41" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="47">
-        <v>40</v>
-      </c>
-      <c r="B42" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="C42" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E42" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="47">
-        <v>41</v>
-      </c>
-      <c r="B43" s="65" t="s">
-        <v>210</v>
-      </c>
-      <c r="C43" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="D43" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="E43" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="47">
-        <v>42</v>
-      </c>
-      <c r="B44" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="C44" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="D44" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="47">
-        <v>43</v>
-      </c>
-      <c r="B45" s="65" t="s">
-        <v>216</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="D45" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="E45" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="47">
-        <v>44</v>
-      </c>
-      <c r="B46" s="65" t="s">
-        <v>219</v>
-      </c>
-      <c r="C46" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="D46" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="E46" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="47">
-        <v>45</v>
-      </c>
-      <c r="B47" s="65" t="s">
-        <v>221</v>
-      </c>
-      <c r="C47" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="D47" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="E47" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="47">
-        <v>46</v>
-      </c>
-      <c r="B48" s="65" t="s">
-        <v>224</v>
-      </c>
-      <c r="C48" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="D48" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="E48" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="47">
-        <v>47</v>
-      </c>
-      <c r="B49" s="65" t="s">
-        <v>227</v>
-      </c>
-      <c r="C49" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="D49" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="E49" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="47">
-        <v>48</v>
-      </c>
-      <c r="B50" s="65" t="s">
-        <v>230</v>
-      </c>
-      <c r="C50" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="D50" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="E50" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="47">
-        <v>49</v>
-      </c>
-      <c r="B51" s="65" t="s">
-        <v>233</v>
-      </c>
-      <c r="C51" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="D51" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="E51" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="47">
-        <v>50</v>
-      </c>
-      <c r="B52" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="C52" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="D52" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="E52" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="47">
-        <v>51</v>
-      </c>
-      <c r="B53" s="65" t="s">
-        <v>239</v>
-      </c>
-      <c r="C53" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="D53" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="E53" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="47">
-        <v>52</v>
-      </c>
-      <c r="B54" s="65" t="s">
-        <v>242</v>
-      </c>
-      <c r="C54" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="D54" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="E54" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="47">
-        <v>53</v>
-      </c>
-      <c r="B55" s="65" t="s">
-        <v>245</v>
-      </c>
-      <c r="C55" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="D55" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="E55" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="47">
-        <v>54</v>
-      </c>
-      <c r="B56" s="65" t="s">
-        <v>248</v>
-      </c>
-      <c r="C56" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="D56" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="E56" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="47">
-        <v>55</v>
-      </c>
-      <c r="B57" s="65" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="D57" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="E57" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="47">
-        <v>56</v>
-      </c>
-      <c r="B58" s="65" t="s">
-        <v>254</v>
-      </c>
-      <c r="C58" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="D58" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="E58" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="47">
-        <v>57</v>
-      </c>
-      <c r="B59" s="65" t="s">
-        <v>256</v>
-      </c>
-      <c r="C59" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="D59" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="E59" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="47">
-        <v>58</v>
-      </c>
-      <c r="B60" s="65" t="s">
-        <v>259</v>
-      </c>
-      <c r="C60" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="D60" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="E60" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="47">
-        <v>59</v>
-      </c>
-      <c r="B61" s="65" t="s">
-        <v>262</v>
-      </c>
-      <c r="C61" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="D61" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="E61" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="47">
-        <v>60</v>
-      </c>
-      <c r="B62" s="65" t="s">
-        <v>265</v>
-      </c>
-      <c r="C62" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="D62" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="E62" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="47">
-        <v>61</v>
-      </c>
-      <c r="B63" s="65" t="s">
-        <v>268</v>
-      </c>
-      <c r="C63" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="D63" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="E63" s="48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="47">
-        <v>62</v>
-      </c>
-      <c r="B64" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="C64" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="D64" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="E64" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="47">
-        <v>63</v>
-      </c>
-      <c r="B65" s="65" t="s">
-        <v>274</v>
-      </c>
-      <c r="C65" s="48" t="s">
-        <v>275</v>
-      </c>
-      <c r="D65" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="E65" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="47">
-        <v>64</v>
-      </c>
-      <c r="B66" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="C66" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="D66" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="E66" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="47">
-        <v>65</v>
-      </c>
-      <c r="B67" s="65" t="s">
-        <v>280</v>
-      </c>
-      <c r="C67" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="D67" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="E67" s="48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="47">
-        <v>66</v>
-      </c>
-      <c r="B68" s="65" t="s">
-        <v>283</v>
-      </c>
-      <c r="C68" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="D68" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="E68" s="48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="47">
-        <v>67</v>
-      </c>
-      <c r="B69" s="65" t="s">
-        <v>286</v>
-      </c>
-      <c r="C69" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="D69" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="E69" s="48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="47">
-        <v>68</v>
-      </c>
-      <c r="B70" s="65" t="s">
-        <v>289</v>
-      </c>
-      <c r="C70" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="D70" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="E70" s="48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="47">
-        <v>69</v>
-      </c>
-      <c r="B71" s="65" t="s">
-        <v>292</v>
-      </c>
-      <c r="C71" s="48" t="s">
-        <v>293</v>
-      </c>
-      <c r="D71" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="E71" s="48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="47">
-        <v>70</v>
-      </c>
-      <c r="B72" s="65" t="s">
-        <v>295</v>
-      </c>
-      <c r="C72" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="D72" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="E72" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="47">
-        <v>71</v>
-      </c>
-      <c r="B73" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="C73" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="D73" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="E73" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="47">
-        <v>72</v>
-      </c>
-      <c r="B74" s="65" t="s">
-        <v>301</v>
-      </c>
-      <c r="C74" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="D74" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="E74" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="47">
-        <v>73</v>
-      </c>
-      <c r="B75" s="65" t="s">
-        <v>304</v>
-      </c>
-      <c r="C75" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="D75" s="48" t="s">
-        <v>306</v>
-      </c>
-      <c r="E75" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="47">
-        <v>74</v>
-      </c>
-      <c r="B76" s="65" t="s">
-        <v>307</v>
-      </c>
-      <c r="C76" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="D76" s="48" t="s">
-        <v>309</v>
-      </c>
-      <c r="E76" s="48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="47">
-        <v>75</v>
-      </c>
-      <c r="B77" s="65" t="s">
-        <v>310</v>
-      </c>
-      <c r="C77" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="D77" s="48" t="s">
-        <v>312</v>
-      </c>
-      <c r="E77" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="47">
-        <v>76</v>
-      </c>
-      <c r="B78" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="C78" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="D78" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="E78" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="47">
-        <v>77</v>
-      </c>
-      <c r="B79" s="65" t="s">
-        <v>316</v>
-      </c>
-      <c r="C79" s="48" t="s">
-        <v>317</v>
-      </c>
-      <c r="D79" s="48" t="s">
-        <v>318</v>
-      </c>
-      <c r="E79" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="47">
-        <v>78</v>
-      </c>
-      <c r="B80" s="65" t="s">
-        <v>319</v>
-      </c>
-      <c r="C80" s="48" t="s">
-        <v>320</v>
-      </c>
-      <c r="D80" s="48" t="s">
-        <v>321</v>
-      </c>
-      <c r="E80" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="47">
-        <v>79</v>
-      </c>
-      <c r="B81" s="65" t="s">
-        <v>322</v>
-      </c>
-      <c r="C81" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="D81" s="48" t="s">
-        <v>324</v>
-      </c>
-      <c r="E81" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="47">
-        <v>80</v>
-      </c>
-      <c r="B82" s="65" t="s">
-        <v>325</v>
-      </c>
-      <c r="C82" s="48" t="s">
-        <v>326</v>
-      </c>
-      <c r="D82" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="E82" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="47">
-        <v>81</v>
-      </c>
-      <c r="B83" s="65" t="s">
-        <v>328</v>
-      </c>
-      <c r="C83" s="48" t="s">
-        <v>329</v>
-      </c>
-      <c r="D83" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="E83" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="47">
-        <v>82</v>
-      </c>
-      <c r="B84" s="65" t="s">
-        <v>331</v>
-      </c>
-      <c r="C84" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="D84" s="48" t="s">
-        <v>333</v>
-      </c>
-      <c r="E84" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="47">
-        <v>83</v>
-      </c>
-      <c r="B85" s="65" t="s">
-        <v>334</v>
-      </c>
-      <c r="C85" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="D85" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="E85" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="47">
-        <v>84</v>
-      </c>
-      <c r="B86" s="65" t="s">
-        <v>337</v>
-      </c>
-      <c r="C86" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="D86" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="E86" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="47">
-        <v>85</v>
-      </c>
-      <c r="B87" s="65" t="s">
-        <v>340</v>
-      </c>
-      <c r="C87" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="D87" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="E87" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="47">
-        <v>86</v>
-      </c>
-      <c r="B88" s="65" t="s">
-        <v>342</v>
-      </c>
-      <c r="C88" s="48" t="s">
-        <v>343</v>
-      </c>
-      <c r="D88" s="48" t="s">
-        <v>344</v>
-      </c>
-      <c r="E88" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="47">
-        <v>87</v>
-      </c>
-      <c r="B89" s="65" t="s">
-        <v>345</v>
-      </c>
-      <c r="C89" s="48" t="s">
-        <v>346</v>
-      </c>
-      <c r="D89" s="48" t="s">
-        <v>347</v>
-      </c>
-      <c r="E89" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="47">
-        <v>88</v>
-      </c>
-      <c r="B90" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="C90" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="D90" s="48" t="s">
-        <v>350</v>
-      </c>
-      <c r="E90" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="47">
-        <v>89</v>
-      </c>
-      <c r="B91" s="65" t="s">
-        <v>351</v>
-      </c>
-      <c r="C91" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="D91" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="E91" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="47">
-        <v>90</v>
-      </c>
-      <c r="B92" s="65" t="s">
-        <v>354</v>
-      </c>
-      <c r="C92" s="48" t="s">
-        <v>355</v>
-      </c>
-      <c r="D92" s="48" t="s">
-        <v>356</v>
-      </c>
-      <c r="E92" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="47">
-        <v>91</v>
-      </c>
-      <c r="B93" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="C93" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="D93" s="48" t="s">
-        <v>359</v>
-      </c>
-      <c r="E93" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="47">
-        <v>92</v>
-      </c>
-      <c r="B94" s="63">
-        <v>2842001</v>
-      </c>
-      <c r="C94" s="48" t="s">
-        <v>360</v>
-      </c>
-      <c r="D94" s="48" t="s">
-        <v>361</v>
-      </c>
-      <c r="E94" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="47">
-        <v>93</v>
-      </c>
-      <c r="B95" s="65" t="s">
-        <v>362</v>
-      </c>
-      <c r="C95" s="48" t="s">
-        <v>363</v>
-      </c>
-      <c r="D95" s="48" t="s">
-        <v>364</v>
-      </c>
-      <c r="E95" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="47">
-        <v>94</v>
-      </c>
-      <c r="B96" s="65" t="s">
-        <v>365</v>
-      </c>
-      <c r="C96" s="48" t="s">
-        <v>366</v>
-      </c>
-      <c r="D96" s="48" t="s">
-        <v>367</v>
-      </c>
-      <c r="E96" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="47">
-        <v>95</v>
-      </c>
-      <c r="B97" s="65" t="s">
-        <v>368</v>
-      </c>
-      <c r="C97" s="48" t="s">
-        <v>369</v>
-      </c>
-      <c r="D97" s="48" t="s">
-        <v>370</v>
-      </c>
-      <c r="E97" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="47">
-        <v>96</v>
-      </c>
-      <c r="B98" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="C98" s="48" t="s">
-        <v>372</v>
-      </c>
-      <c r="D98" s="48" t="s">
-        <v>373</v>
-      </c>
-      <c r="E98" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="47">
-        <v>97</v>
-      </c>
-      <c r="B99" s="65" t="s">
-        <v>374</v>
-      </c>
-      <c r="C99" s="48" t="s">
-        <v>375</v>
-      </c>
-      <c r="D99" s="48" t="s">
-        <v>376</v>
-      </c>
-      <c r="E99" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="47">
-        <v>98</v>
-      </c>
-      <c r="B100" s="65" t="s">
-        <v>377</v>
-      </c>
-      <c r="C100" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="D100" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="E100" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="47">
-        <v>99</v>
-      </c>
-      <c r="B101" s="65" t="s">
-        <v>380</v>
-      </c>
-      <c r="C101" s="48" t="s">
-        <v>381</v>
-      </c>
-      <c r="D101" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="E101" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="47">
-        <v>100</v>
-      </c>
-      <c r="B102" s="65" t="s">
-        <v>383</v>
-      </c>
-      <c r="C102" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="D102" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="E102" s="48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="47">
-        <v>101</v>
-      </c>
-      <c r="B103" s="65" t="s">
-        <v>385</v>
-      </c>
-      <c r="C103" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="D103" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="E103" s="48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="47">
-        <v>102</v>
-      </c>
-      <c r="B104" s="63">
-        <v>2038875</v>
-      </c>
-      <c r="C104" s="48" t="s">
-        <v>388</v>
-      </c>
-      <c r="D104" s="48" t="s">
-        <v>389</v>
-      </c>
-      <c r="E104" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="47">
-        <v>103</v>
-      </c>
-      <c r="B105" s="65" t="s">
-        <v>390</v>
-      </c>
-      <c r="C105" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="D105" s="48" t="s">
-        <v>392</v>
-      </c>
-      <c r="E105" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A106" s="47">
-        <v>104</v>
-      </c>
-      <c r="B106" s="65" t="s">
-        <v>393</v>
-      </c>
-      <c r="C106" s="48" t="s">
-        <v>394</v>
-      </c>
-      <c r="D106" s="48" t="s">
-        <v>395</v>
-      </c>
-      <c r="E106" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A107" s="47">
-        <v>105</v>
-      </c>
-      <c r="B107" s="65" t="s">
-        <v>396</v>
-      </c>
-      <c r="C107" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="D107" s="48" t="s">
-        <v>398</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A108" s="47">
-        <v>106</v>
-      </c>
-      <c r="B108" s="65" t="s">
-        <v>399</v>
-      </c>
-      <c r="C108" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="D108" s="48" t="s">
-        <v>401</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A109" s="47">
-        <v>107</v>
-      </c>
-      <c r="B109" s="65" t="s">
-        <v>402</v>
-      </c>
-      <c r="C109" s="48" t="s">
-        <v>404</v>
-      </c>
-      <c r="D109" s="48" t="s">
-        <v>403</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A110" s="47">
-        <v>108</v>
-      </c>
-      <c r="B110" s="65" t="s">
-        <v>405</v>
-      </c>
-      <c r="C110" s="48" t="s">
-        <v>406</v>
-      </c>
-      <c r="D110" s="48" t="s">
-        <v>407</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A111" s="47">
-        <v>109</v>
-      </c>
-      <c r="B111" s="65" t="s">
-        <v>408</v>
-      </c>
-      <c r="C111" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D111" s="48" t="s">
-        <v>410</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A112" s="47">
-        <v>110</v>
-      </c>
-      <c r="B112" s="65" t="s">
-        <v>411</v>
-      </c>
-      <c r="C112" s="48" t="s">
-        <v>412</v>
-      </c>
-      <c r="D112" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="E112" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A113" s="47">
-        <v>111</v>
-      </c>
-      <c r="B113" s="65" t="s">
-        <v>414</v>
-      </c>
-      <c r="C113" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="D113" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="E113" s="48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A114" s="47">
-        <v>112</v>
-      </c>
-      <c r="B114" s="65" t="s">
-        <v>416</v>
-      </c>
-      <c r="C114" s="48" t="s">
-        <v>417</v>
-      </c>
-      <c r="D114" s="48" t="s">
-        <v>418</v>
-      </c>
-      <c r="E114" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A115" s="47">
-        <v>113</v>
-      </c>
-      <c r="B115" s="65" t="s">
-        <v>419</v>
-      </c>
-      <c r="C115" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="D115" s="48" t="s">
-        <v>420</v>
-      </c>
-      <c r="E115" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A116" s="47">
-        <v>114</v>
-      </c>
-      <c r="B116" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="C116" s="48" t="s">
-        <v>422</v>
-      </c>
-      <c r="D116" s="48" t="s">
-        <v>423</v>
-      </c>
-      <c r="E116" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A117" s="47">
-        <v>115</v>
-      </c>
-      <c r="B117" s="65" t="s">
-        <v>424</v>
-      </c>
-      <c r="C117" s="48" t="s">
-        <v>425</v>
-      </c>
-      <c r="D117" s="48" t="s">
-        <v>426</v>
-      </c>
-      <c r="E117" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A118" s="47">
-        <v>116</v>
-      </c>
-      <c r="B118" s="65" t="s">
-        <v>427</v>
-      </c>
-      <c r="C118" s="48" t="s">
-        <v>428</v>
-      </c>
-      <c r="D118" s="48" t="s">
-        <v>429</v>
-      </c>
-      <c r="E118" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A119" s="47">
-        <v>117</v>
-      </c>
-      <c r="B119" s="65" t="s">
-        <v>430</v>
-      </c>
-      <c r="C119" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="D119" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="E119" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A120" s="47">
-        <v>118</v>
-      </c>
-      <c r="B120" s="65" t="s">
-        <v>432</v>
-      </c>
-      <c r="C120" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="D120" s="48" t="s">
-        <v>433</v>
-      </c>
-      <c r="E120" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A121" s="47">
-        <v>119</v>
-      </c>
-      <c r="B121" s="63">
-        <v>8350337</v>
-      </c>
-      <c r="C121" s="48" t="s">
-        <v>417</v>
-      </c>
-      <c r="D121" s="48" t="s">
-        <v>434</v>
-      </c>
-      <c r="E121" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A122" s="47">
-        <v>120</v>
-      </c>
-      <c r="B122" s="63">
-        <v>3327624</v>
-      </c>
-      <c r="C122" s="48" t="s">
-        <v>435</v>
-      </c>
-      <c r="D122" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A123" s="47">
-        <v>121</v>
-      </c>
-      <c r="B123" s="65" t="s">
-        <v>437</v>
-      </c>
-      <c r="C123" s="48" t="s">
-        <v>438</v>
-      </c>
-      <c r="D123" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="E123" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A124" s="47">
-        <v>122</v>
-      </c>
-      <c r="B124" s="65" t="s">
-        <v>440</v>
-      </c>
-      <c r="C124" s="48" t="s">
-        <v>441</v>
-      </c>
-      <c r="D124" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A125" s="47">
-        <v>123</v>
-      </c>
-      <c r="B125" s="65" t="s">
-        <v>442</v>
-      </c>
-      <c r="C125" s="48" t="s">
-        <v>443</v>
-      </c>
-      <c r="D125" s="48" t="s">
-        <v>444</v>
-      </c>
-      <c r="E125" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A126" s="47">
-        <v>124</v>
-      </c>
-      <c r="B126" s="65" t="s">
-        <v>445</v>
-      </c>
-      <c r="C126" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="D126" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="E126" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A127" s="47">
-        <v>125</v>
-      </c>
-      <c r="B127" s="65" t="s">
-        <v>448</v>
-      </c>
-      <c r="C127" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="D127" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="E127" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A128" s="47">
-        <v>126</v>
-      </c>
-      <c r="B128" s="65" t="s">
-        <v>449</v>
-      </c>
-      <c r="C128" s="48" t="s">
-        <v>450</v>
-      </c>
-      <c r="D128" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="E128" s="48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A129" s="47">
-        <v>127</v>
-      </c>
-      <c r="B129" s="65" t="s">
-        <v>451</v>
-      </c>
-      <c r="C129" s="48" t="s">
-        <v>452</v>
-      </c>
-      <c r="D129" s="48" t="s">
-        <v>453</v>
-      </c>
-      <c r="E129" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A130" s="47">
-        <v>128</v>
-      </c>
-      <c r="B130" s="65" t="s">
-        <v>454</v>
-      </c>
-      <c r="C130" s="48" t="s">
-        <v>455</v>
-      </c>
-      <c r="D130" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="E130" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A131" s="47">
-        <v>129</v>
-      </c>
-      <c r="B131" s="65" t="s">
-        <v>456</v>
-      </c>
-      <c r="C131" s="48" t="s">
-        <v>457</v>
-      </c>
-      <c r="D131" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="E131" s="48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A132" s="47">
-        <v>130</v>
-      </c>
-      <c r="B132" s="65" t="s">
-        <v>458</v>
-      </c>
-      <c r="C132" s="48" t="s">
-        <v>459</v>
-      </c>
-      <c r="D132" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="E132" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A133" s="47">
-        <v>131</v>
-      </c>
-      <c r="B133" s="65" t="s">
-        <v>460</v>
-      </c>
-      <c r="C133" s="48" t="s">
-        <v>461</v>
-      </c>
-      <c r="D133" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="E133" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A134" s="47">
-        <v>132</v>
-      </c>
-      <c r="B134" s="65" t="s">
-        <v>462</v>
-      </c>
-      <c r="C134" s="48" t="s">
-        <v>463</v>
-      </c>
-      <c r="D134" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="E134" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A135" s="47">
-        <v>133</v>
-      </c>
-      <c r="B135" s="65" t="s">
-        <v>465</v>
-      </c>
-      <c r="C135" s="48" t="s">
-        <v>450</v>
-      </c>
-      <c r="D135" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="E135" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A136" s="47">
-        <v>134</v>
-      </c>
-      <c r="B136" s="65" t="s">
-        <v>466</v>
-      </c>
-      <c r="C136" s="48" t="s">
-        <v>467</v>
-      </c>
-      <c r="D136" s="48" t="s">
-        <v>468</v>
-      </c>
-      <c r="E136" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A137" s="47">
-        <v>135</v>
-      </c>
-      <c r="B137" s="65" t="s">
-        <v>469</v>
-      </c>
-      <c r="C137" s="48" t="s">
-        <v>470</v>
-      </c>
-      <c r="D137" s="48" t="s">
-        <v>471</v>
-      </c>
-      <c r="E137" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A138" s="47">
-        <v>136</v>
-      </c>
-      <c r="B138" s="65" t="s">
-        <v>472</v>
-      </c>
-      <c r="C138" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="D138" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="E138" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A139" s="47">
-        <v>137</v>
-      </c>
-      <c r="B139" s="65" t="s">
-        <v>475</v>
-      </c>
-      <c r="C139" s="48" t="s">
-        <v>476</v>
-      </c>
-      <c r="D139" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="E139" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A140" s="47">
-        <v>138</v>
-      </c>
-      <c r="B140" s="65" t="s">
-        <v>477</v>
-      </c>
-      <c r="C140" s="48" t="s">
-        <v>478</v>
-      </c>
-      <c r="D140" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="E140" s="48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A141" s="47">
-        <v>139</v>
-      </c>
-      <c r="B141" s="65" t="s">
-        <v>479</v>
-      </c>
-      <c r="C141" s="48" t="s">
-        <v>480</v>
-      </c>
-      <c r="D141" s="48" t="s">
-        <v>481</v>
-      </c>
-      <c r="E141" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A142" s="47">
-        <v>140</v>
-      </c>
-      <c r="B142" s="65" t="s">
-        <v>482</v>
-      </c>
-      <c r="C142" s="48" t="s">
-        <v>483</v>
-      </c>
-      <c r="D142" s="48" t="s">
-        <v>484</v>
-      </c>
-      <c r="E142" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A143" s="47">
-        <v>141</v>
-      </c>
-      <c r="B143" s="65" t="s">
-        <v>485</v>
-      </c>
-      <c r="C143" s="48" t="s">
-        <v>486</v>
-      </c>
-      <c r="D143" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="E143" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A144" s="47">
-        <v>142</v>
-      </c>
-      <c r="B144" s="65" t="s">
-        <v>487</v>
-      </c>
-      <c r="C144" s="48" t="s">
-        <v>488</v>
-      </c>
-      <c r="D144" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="E144" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A145" s="47">
-        <v>143</v>
-      </c>
-      <c r="B145" s="65" t="s">
-        <v>489</v>
-      </c>
-      <c r="C145" s="48" t="s">
-        <v>480</v>
-      </c>
-      <c r="D145" s="48" t="s">
-        <v>490</v>
-      </c>
-      <c r="E145" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A146" s="47">
-        <v>144</v>
-      </c>
-      <c r="B146" s="65" t="s">
-        <v>491</v>
-      </c>
-      <c r="C146" s="48" t="s">
-        <v>492</v>
-      </c>
-      <c r="D146" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="E146" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A147" s="47">
-        <v>145</v>
-      </c>
-      <c r="B147" s="65" t="s">
-        <v>493</v>
-      </c>
-      <c r="C147" s="48" t="s">
-        <v>494</v>
-      </c>
-      <c r="D147" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="E147" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A148" s="47">
-        <v>146</v>
-      </c>
-      <c r="B148" s="65" t="s">
-        <v>495</v>
-      </c>
-      <c r="C148" s="48" t="s">
-        <v>488</v>
-      </c>
-      <c r="D148" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="E148" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A149" s="47">
-        <v>147</v>
-      </c>
-      <c r="B149" s="65" t="s">
-        <v>496</v>
-      </c>
-      <c r="C149" s="48" t="s">
-        <v>497</v>
-      </c>
-      <c r="D149" s="48" t="s">
-        <v>498</v>
-      </c>
-      <c r="E149" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A150" s="47">
-        <v>148</v>
-      </c>
-      <c r="B150" s="65" t="s">
-        <v>499</v>
-      </c>
-      <c r="C150" s="48" t="s">
-        <v>500</v>
-      </c>
-      <c r="D150" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="E150" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A151" s="47">
-        <v>149</v>
-      </c>
-      <c r="B151" s="65" t="s">
-        <v>501</v>
-      </c>
-      <c r="C151" s="48" t="s">
-        <v>502</v>
-      </c>
-      <c r="D151" s="48" t="s">
-        <v>503</v>
-      </c>
-      <c r="E151" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A152" s="47">
-        <v>150</v>
-      </c>
-      <c r="B152" s="65"/>
-      <c r="C152" s="48"/>
-      <c r="D152" s="48"/>
-      <c r="E152" s="48"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A153" s="47">
-        <v>151</v>
-      </c>
-      <c r="B153" s="65"/>
-      <c r="C153" s="48"/>
-      <c r="D153" s="48"/>
-      <c r="E153" s="48"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A154" s="47">
-        <v>152</v>
-      </c>
-      <c r="B154" s="65"/>
-      <c r="C154" s="48"/>
-      <c r="D154" s="48"/>
-      <c r="E154" s="48"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A155" s="47">
-        <v>153</v>
-      </c>
-      <c r="B155" s="65"/>
-      <c r="C155" s="48"/>
-      <c r="D155" s="48"/>
-      <c r="E155" s="48"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A156" s="47">
-        <v>154</v>
-      </c>
-      <c r="B156" s="65"/>
-      <c r="C156" s="48"/>
-      <c r="D156" s="48"/>
-      <c r="E156" s="48"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A157" s="47">
-        <v>155</v>
-      </c>
-      <c r="B157" s="65"/>
-      <c r="C157" s="48"/>
-      <c r="D157" s="48"/>
-      <c r="E157" s="48"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A158" s="47">
-        <v>156</v>
-      </c>
-      <c r="B158" s="65"/>
-      <c r="C158" s="48"/>
-      <c r="D158" s="48"/>
-      <c r="E158" s="48"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A159" s="47">
-        <v>157</v>
-      </c>
-      <c r="B159" s="65"/>
-      <c r="C159" s="48"/>
-      <c r="D159" s="48"/>
-      <c r="E159" s="48"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A160" s="47">
-        <v>158</v>
-      </c>
-      <c r="B160" s="65"/>
-      <c r="C160" s="48"/>
-      <c r="D160" s="48"/>
-      <c r="E160" s="48"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A161" s="47">
-        <v>159</v>
-      </c>
-      <c r="B161" s="65"/>
-      <c r="C161" s="48"/>
-      <c r="D161" s="48"/>
-      <c r="E161" s="48"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A162" s="47">
-        <v>160</v>
-      </c>
-      <c r="B162" s="65"/>
-      <c r="C162" s="48"/>
-      <c r="D162" s="48"/>
-      <c r="E162" s="48"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A163" s="47">
-        <v>161</v>
-      </c>
-      <c r="B163" s="65"/>
-      <c r="C163" s="48"/>
-      <c r="D163" s="48"/>
-      <c r="E163" s="48"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A164" s="47">
-        <v>162</v>
-      </c>
-      <c r="B164" s="65"/>
-      <c r="C164" s="48"/>
-      <c r="D164" s="48"/>
-      <c r="E164" s="48"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A165" s="47">
-        <v>163</v>
-      </c>
-      <c r="B165" s="65"/>
-      <c r="C165" s="48"/>
-      <c r="D165" s="48"/>
-      <c r="E165" s="48"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A166" s="47">
-        <v>164</v>
-      </c>
-      <c r="B166" s="65"/>
-      <c r="C166" s="48"/>
-      <c r="D166" s="48"/>
-      <c r="E166" s="48"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A167" s="47">
-        <v>165</v>
-      </c>
-      <c r="B167" s="65"/>
-      <c r="C167" s="48"/>
-      <c r="D167" s="48"/>
-      <c r="E167" s="48"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A168" s="47">
-        <v>166</v>
-      </c>
-      <c r="B168" s="65"/>
-      <c r="C168" s="48"/>
-      <c r="D168" s="48"/>
-      <c r="E168" s="48"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A169" s="47">
-        <v>167</v>
-      </c>
-      <c r="B169" s="65"/>
-      <c r="C169" s="48"/>
-      <c r="D169" s="48"/>
-      <c r="E169" s="48"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A170" s="47">
-        <v>168</v>
-      </c>
-      <c r="B170" s="65"/>
-      <c r="C170" s="48"/>
-      <c r="D170" s="48"/>
-      <c r="E170" s="48"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A171" s="47">
-        <v>169</v>
-      </c>
-      <c r="B171" s="65"/>
-      <c r="C171" s="48"/>
-      <c r="D171" s="48"/>
-      <c r="E171" s="48"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A172" s="47">
-        <v>170</v>
-      </c>
-      <c r="B172" s="65"/>
-      <c r="C172" s="48"/>
-      <c r="D172" s="48"/>
-      <c r="E172" s="48"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A173" s="47">
-        <v>171</v>
-      </c>
-      <c r="B173" s="65"/>
-      <c r="C173" s="48"/>
-      <c r="D173" s="48"/>
-      <c r="E173" s="48"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A174" s="47">
-        <v>172</v>
-      </c>
-      <c r="B174" s="65"/>
-      <c r="C174" s="48"/>
-      <c r="D174" s="48"/>
-      <c r="E174" s="48"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A175" s="47">
-        <v>173</v>
-      </c>
-      <c r="B175" s="65"/>
-      <c r="C175" s="48"/>
-      <c r="D175" s="48"/>
-      <c r="E175" s="48"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A176" s="47">
-        <v>174</v>
-      </c>
-      <c r="B176" s="65"/>
-      <c r="C176" s="48"/>
-      <c r="D176" s="48"/>
-      <c r="E176" s="48"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A177" s="47">
-        <v>175</v>
-      </c>
-      <c r="B177" s="65"/>
-      <c r="C177" s="48"/>
-      <c r="D177" s="48"/>
-      <c r="E177" s="48"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A178" s="47">
-        <v>176</v>
-      </c>
-      <c r="B178" s="65"/>
-      <c r="C178" s="48"/>
-      <c r="D178" s="48"/>
-      <c r="E178" s="48"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A179" s="47">
-        <v>177</v>
-      </c>
-      <c r="B179" s="65"/>
-      <c r="C179" s="48"/>
-      <c r="D179" s="48"/>
-      <c r="E179" s="48"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A180" s="47">
-        <v>178</v>
-      </c>
-      <c r="B180" s="65"/>
-      <c r="C180" s="48"/>
-      <c r="D180" s="48"/>
-      <c r="E180" s="48"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A181" s="47">
-        <v>179</v>
-      </c>
-      <c r="B181" s="65"/>
-      <c r="C181" s="48"/>
-      <c r="D181" s="48"/>
-      <c r="E181" s="48"/>
+      <c r="B181" s="53"/>
+      <c r="C181" s="47"/>
+      <c r="D181" s="47"/>
+      <c r="E181" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11805,13 +11513,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
